--- a/Excel reports/adjusted_df_news.xlsx
+++ b/Excel reports/adjusted_df_news.xlsx
@@ -447,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>APISentiment</t>
+          <t>CombinedVaderSentiment</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
         <v>44543</v>
       </c>
       <c r="B2" t="n">
-        <v>0.963</v>
+        <v>0.959</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>44550</v>
       </c>
       <c r="B3" t="n">
-        <v>0.548</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>44557</v>
       </c>
       <c r="B4" t="n">
-        <v>0.891</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>44564</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>44571</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         <v>44578</v>
       </c>
       <c r="B7" t="n">
-        <v>0.993</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         <v>44585</v>
       </c>
       <c r="B8" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         <v>44592</v>
       </c>
       <c r="B9" t="n">
-        <v>0.994</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>44599</v>
       </c>
       <c r="B10" t="n">
-        <v>0.976</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         <v>44606</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         <v>44613</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9944999999999999</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>44620</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>44627</v>
       </c>
       <c r="B14" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>44634</v>
       </c>
       <c r="B15" t="n">
-        <v>0.75</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>44641</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9655</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>44648</v>
       </c>
       <c r="B17" t="n">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>44655</v>
       </c>
       <c r="B18" t="n">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="19">
@@ -600,7 +600,7 @@
         <v>44669</v>
       </c>
       <c r="B20" t="n">
-        <v>0.977</v>
+        <v>0.9804999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>44676</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9675</v>
+        <v>0.9895</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         <v>44683</v>
       </c>
       <c r="B22" t="n">
-        <v>0.998</v>
+        <v>1.0248</v>
       </c>
     </row>
     <row r="23">
@@ -640,7 +640,7 @@
         <v>44704</v>
       </c>
       <c r="B25" t="n">
-        <v>0.991</v>
+        <v>0.86465</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>44711</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="27">
@@ -664,7 +664,7 @@
         <v>44725</v>
       </c>
       <c r="B28" t="n">
-        <v>0.98</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>44732</v>
       </c>
       <c r="B29" t="n">
-        <v>0.95</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>44739</v>
       </c>
       <c r="B30" t="n">
-        <v>0.988</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>44746</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9935</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>44753</v>
       </c>
       <c r="B32" t="n">
-        <v>0.996</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="33">
@@ -712,7 +712,7 @@
         <v>44767</v>
       </c>
       <c r="B34" t="n">
-        <v>0.959</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>44774</v>
       </c>
       <c r="B35" t="n">
-        <v>0.992</v>
+        <v>0.90655</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>44781</v>
       </c>
       <c r="B36" t="n">
-        <v>0.985</v>
+        <v>0.7800499999999999</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>44788</v>
       </c>
       <c r="B37" t="n">
-        <v>0.985</v>
+        <v>0.9955000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>44795</v>
       </c>
       <c r="B38" t="n">
-        <v>0.991</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="39">
@@ -752,7 +752,7 @@
         <v>44802</v>
       </c>
       <c r="B39" t="n">
-        <v>0.978</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="40">

--- a/Excel reports/adjusted_df_news.xlsx
+++ b/Excel reports/adjusted_df_news.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,135 +453,135 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44543</v>
+        <v>43976</v>
       </c>
       <c r="B2" t="n">
-        <v>0.959</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44550</v>
+        <v>44060</v>
       </c>
       <c r="B3" t="n">
-        <v>0.56335</v>
+        <v>1.2013</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44557</v>
+        <v>44067</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5781000000000001</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44564</v>
+        <v>44158</v>
       </c>
       <c r="B5" t="n">
-        <v>0.852</v>
+        <v>1.1995</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44571</v>
+        <v>44165</v>
       </c>
       <c r="B6" t="n">
-        <v>0.995</v>
+        <v>0.6774</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44578</v>
+        <v>44172</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9924999999999999</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44585</v>
+        <v>44179</v>
       </c>
       <c r="B8" t="n">
-        <v>0.995</v>
+        <v>1.4364</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44592</v>
+        <v>44186</v>
       </c>
       <c r="B9" t="n">
-        <v>0.995</v>
+        <v>1.4394</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44599</v>
+        <v>44193</v>
       </c>
       <c r="B10" t="n">
-        <v>0.986</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44606</v>
+        <v>44207</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8704499999999999</v>
+        <v>0.982</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44613</v>
+        <v>44214</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44620</v>
+        <v>44221</v>
       </c>
       <c r="B13" t="n">
-        <v>1.1598</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44627</v>
+        <v>44249</v>
       </c>
       <c r="B14" t="n">
-        <v>0.998</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44634</v>
+        <v>44263</v>
       </c>
       <c r="B15" t="n">
-        <v>0.19515</v>
+        <v>1.6219</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44641</v>
+        <v>44277</v>
       </c>
       <c r="B16" t="n">
-        <v>0.86225</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44648</v>
+        <v>44298</v>
       </c>
       <c r="B17" t="n">
-        <v>0.957</v>
+        <v>1.1303</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44655</v>
+        <v>44305</v>
       </c>
       <c r="B18" t="n">
         <v>0.998</v>
@@ -589,178 +589,370 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44662</v>
+        <v>44319</v>
       </c>
       <c r="B19" t="n">
-        <v>0.967</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44669</v>
+        <v>44333</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9804999999999999</v>
+        <v>0.8464499999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44676</v>
+        <v>44347</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9895</v>
+        <v>1.0171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44683</v>
+        <v>44361</v>
       </c>
       <c r="B22" t="n">
-        <v>1.0248</v>
+        <v>0.987</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44690</v>
+        <v>44375</v>
       </c>
       <c r="B23" t="n">
-        <v>0.679</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44697</v>
+        <v>44382</v>
       </c>
       <c r="B24" t="n">
-        <v>0.999</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44704</v>
+        <v>44389</v>
       </c>
       <c r="B25" t="n">
-        <v>0.86465</v>
+        <v>1.4929</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44711</v>
+        <v>44396</v>
       </c>
       <c r="B26" t="n">
-        <v>0.996</v>
+        <v>0.5096000000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44718</v>
+        <v>44403</v>
       </c>
       <c r="B27" t="n">
-        <v>0.956</v>
+        <v>0.8149</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44725</v>
+        <v>44410</v>
       </c>
       <c r="B28" t="n">
-        <v>0.957</v>
+        <v>0.79545</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44732</v>
+        <v>44417</v>
       </c>
       <c r="B29" t="n">
-        <v>0.988</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44739</v>
+        <v>44424</v>
       </c>
       <c r="B30" t="n">
-        <v>0.993</v>
+        <v>1.0642</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44746</v>
+        <v>44431</v>
       </c>
       <c r="B31" t="n">
-        <v>0.98</v>
+        <v>1.08715</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44753</v>
+        <v>44452</v>
       </c>
       <c r="B32" t="n">
-        <v>0.998</v>
+        <v>1.4314</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44760</v>
+        <v>44466</v>
       </c>
       <c r="B33" t="n">
-        <v>0.997</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44767</v>
+        <v>44473</v>
       </c>
       <c r="B34" t="n">
-        <v>0.995</v>
+        <v>1.6249</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44774</v>
+        <v>44487</v>
       </c>
       <c r="B35" t="n">
-        <v>0.90655</v>
+        <v>0.8379</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44781</v>
+        <v>44494</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7800499999999999</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44788</v>
+        <v>44501</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44795</v>
+        <v>44508</v>
       </c>
       <c r="B38" t="n">
-        <v>0.99</v>
+        <v>1.24485</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44802</v>
+        <v>44543</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9924999999999999</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
+        <v>44564</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.291</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44585</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.4452</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.992</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.992</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1.4859</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1.115</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1.28395</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.8369</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1.461</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.013</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.796</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.9865999999999999</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.986</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-0.081</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1.2152</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.162</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>44809</v>
       </c>
-      <c r="B40" t="n">
-        <v>0.986</v>
+      <c r="B64" t="n">
+        <v>1.6466</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/adjusted_df_news.xlsx
+++ b/Excel reports/adjusted_df_news.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,135 +453,135 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>43976</v>
+        <v>44543</v>
       </c>
       <c r="B2" t="n">
-        <v>0.996</v>
+        <v>1.3612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44060</v>
+        <v>44550</v>
       </c>
       <c r="B3" t="n">
-        <v>1.2013</v>
+        <v>0.56335</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44067</v>
+        <v>44557</v>
       </c>
       <c r="B4" t="n">
-        <v>0.996</v>
+        <v>0.5781000000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44158</v>
+        <v>44564</v>
       </c>
       <c r="B5" t="n">
-        <v>1.1995</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44165</v>
+        <v>44571</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6774</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44172</v>
+        <v>44578</v>
       </c>
       <c r="B7" t="n">
-        <v>0.997</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44179</v>
+        <v>44585</v>
       </c>
       <c r="B8" t="n">
-        <v>1.4364</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44186</v>
+        <v>44592</v>
       </c>
       <c r="B9" t="n">
-        <v>1.4394</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44193</v>
+        <v>44599</v>
       </c>
       <c r="B10" t="n">
-        <v>0.796</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44207</v>
+        <v>44606</v>
       </c>
       <c r="B11" t="n">
-        <v>0.982</v>
+        <v>0.8704499999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44214</v>
+        <v>44613</v>
       </c>
       <c r="B12" t="n">
-        <v>0.994</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44221</v>
+        <v>44620</v>
       </c>
       <c r="B13" t="n">
-        <v>0.988</v>
+        <v>1.1598</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44249</v>
+        <v>44627</v>
       </c>
       <c r="B14" t="n">
-        <v>0.168</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44263</v>
+        <v>44634</v>
       </c>
       <c r="B15" t="n">
-        <v>1.6219</v>
+        <v>0.19515</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44277</v>
+        <v>44641</v>
       </c>
       <c r="B16" t="n">
-        <v>0.645</v>
+        <v>0.86225</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44298</v>
+        <v>44648</v>
       </c>
       <c r="B17" t="n">
-        <v>1.1303</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44305</v>
+        <v>44655</v>
       </c>
       <c r="B18" t="n">
         <v>0.998</v>
@@ -589,370 +589,194 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44319</v>
+        <v>44662</v>
       </c>
       <c r="B19" t="n">
-        <v>0.996</v>
+        <v>0.967</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44333</v>
+        <v>44669</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8464499999999999</v>
+        <v>0.9804999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44347</v>
+        <v>44676</v>
       </c>
       <c r="B21" t="n">
-        <v>1.0171</v>
+        <v>0.9895</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44361</v>
+        <v>44683</v>
       </c>
       <c r="B22" t="n">
-        <v>0.987</v>
+        <v>1.0248</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44375</v>
+        <v>44690</v>
       </c>
       <c r="B23" t="n">
-        <v>0.546</v>
+        <v>0.679</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44382</v>
+        <v>44697</v>
       </c>
       <c r="B24" t="n">
-        <v>0.976</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44389</v>
+        <v>44704</v>
       </c>
       <c r="B25" t="n">
-        <v>1.4929</v>
+        <v>0.86465</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44396</v>
+        <v>44711</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5096000000000001</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44403</v>
+        <v>44718</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8149</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44410</v>
+        <v>44725</v>
       </c>
       <c r="B28" t="n">
-        <v>0.79545</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44417</v>
+        <v>44732</v>
       </c>
       <c r="B29" t="n">
-        <v>0.997</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44424</v>
+        <v>44739</v>
       </c>
       <c r="B30" t="n">
-        <v>1.0642</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44431</v>
+        <v>44746</v>
       </c>
       <c r="B31" t="n">
-        <v>1.08715</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44452</v>
+        <v>44753</v>
       </c>
       <c r="B32" t="n">
-        <v>1.4314</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44466</v>
+        <v>44760</v>
       </c>
       <c r="B33" t="n">
-        <v>0.796</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44473</v>
+        <v>44767</v>
       </c>
       <c r="B34" t="n">
-        <v>1.6249</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44487</v>
+        <v>44774</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8379</v>
+        <v>0.90655</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44494</v>
+        <v>44781</v>
       </c>
       <c r="B36" t="n">
-        <v>0.997</v>
+        <v>0.7800499999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44501</v>
+        <v>44788</v>
       </c>
       <c r="B37" t="n">
-        <v>0.999</v>
+        <v>0.9955000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44508</v>
+        <v>44795</v>
       </c>
       <c r="B38" t="n">
-        <v>1.24485</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44543</v>
+        <v>44802</v>
       </c>
       <c r="B39" t="n">
-        <v>0.998</v>
+        <v>0.9924999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44564</v>
+        <v>44809</v>
       </c>
       <c r="B40" t="n">
-        <v>0.872</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44571</v>
+        <v>44816</v>
       </c>
       <c r="B41" t="n">
-        <v>1.291</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44585</v>
+        <v>44823</v>
       </c>
       <c r="B42" t="n">
-        <v>1.4452</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>44592</v>
-      </c>
-      <c r="B43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>44599</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.992</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>44620</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.992</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44627</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1.4859</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>44634</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>44641</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.996</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>44648</v>
-      </c>
-      <c r="B49" t="n">
-        <v>1.115</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>44669</v>
-      </c>
-      <c r="B50" t="n">
         <v>0.998</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>44676</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.995</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>44683</v>
-      </c>
-      <c r="B52" t="n">
-        <v>1.28395</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>44704</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.8369</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>44711</v>
-      </c>
-      <c r="B54" t="n">
-        <v>1.461</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>44718</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>44732</v>
-      </c>
-      <c r="B56" t="n">
-        <v>1.013</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>44739</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.796</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>44746</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9865999999999999</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>44760</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.986</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>44767</v>
-      </c>
-      <c r="B60" t="n">
-        <v>-0.081</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>44774</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.995</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>44781</v>
-      </c>
-      <c r="B62" t="n">
-        <v>1.2152</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>44795</v>
-      </c>
-      <c r="B63" t="n">
-        <v>1.162</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>44809</v>
-      </c>
-      <c r="B64" t="n">
-        <v>1.6466</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/adjusted_df_news.xlsx
+++ b/Excel reports/adjusted_df_news.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,263 +453,263 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44543</v>
+        <v>44547</v>
       </c>
       <c r="B2" t="n">
-        <v>1.3612</v>
+        <v>0.4602</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44550</v>
+        <v>44549</v>
       </c>
       <c r="B3" t="n">
-        <v>0.56335</v>
+        <v>1.3612</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44557</v>
+        <v>44550</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5781000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44564</v>
+        <v>44551</v>
       </c>
       <c r="B5" t="n">
-        <v>0.852</v>
+        <v>-0.0516</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44571</v>
+        <v>44552</v>
       </c>
       <c r="B6" t="n">
-        <v>0.995</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44578</v>
+        <v>44553</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9924999999999999</v>
+        <v>0.6021000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44585</v>
+        <v>44554</v>
       </c>
       <c r="B8" t="n">
-        <v>0.995</v>
+        <v>1.3604</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44592</v>
+        <v>44555</v>
       </c>
       <c r="B9" t="n">
-        <v>0.995</v>
+        <v>1.4185</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44599</v>
+        <v>44557</v>
       </c>
       <c r="B10" t="n">
-        <v>0.986</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44606</v>
+        <v>44558</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8704499999999999</v>
+        <v>0.8051</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44613</v>
+        <v>44559</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.2371</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44620</v>
+        <v>44560</v>
       </c>
       <c r="B13" t="n">
-        <v>1.1598</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44627</v>
+        <v>44561</v>
       </c>
       <c r="B14" t="n">
-        <v>0.998</v>
+        <v>0.32955</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44634</v>
+        <v>44562</v>
       </c>
       <c r="B15" t="n">
-        <v>0.19515</v>
+        <v>-0.02459999999999996</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44641</v>
+        <v>44563</v>
       </c>
       <c r="B16" t="n">
-        <v>0.86225</v>
+        <v>0.798</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44648</v>
+        <v>44564</v>
       </c>
       <c r="B17" t="n">
-        <v>0.957</v>
+        <v>-0.01764999999999994</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44655</v>
+        <v>44565</v>
       </c>
       <c r="B18" t="n">
-        <v>0.998</v>
+        <v>0.63315</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44662</v>
+        <v>44566</v>
       </c>
       <c r="B19" t="n">
-        <v>0.967</v>
+        <v>1.4996</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44669</v>
+        <v>44567</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9804999999999999</v>
+        <v>-0.12175</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44676</v>
+        <v>44568</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9895</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44683</v>
+        <v>44571</v>
       </c>
       <c r="B22" t="n">
-        <v>1.0248</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44690</v>
+        <v>44572</v>
       </c>
       <c r="B23" t="n">
-        <v>0.679</v>
+        <v>0.66415</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44697</v>
+        <v>44573</v>
       </c>
       <c r="B24" t="n">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44704</v>
+        <v>44574</v>
       </c>
       <c r="B25" t="n">
-        <v>0.86465</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44711</v>
+        <v>44575</v>
       </c>
       <c r="B26" t="n">
-        <v>0.996</v>
+        <v>1.5056</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44718</v>
+        <v>44577</v>
       </c>
       <c r="B27" t="n">
-        <v>0.956</v>
+        <v>0.5570000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44725</v>
+        <v>44578</v>
       </c>
       <c r="B28" t="n">
-        <v>0.957</v>
+        <v>1.3412</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44732</v>
+        <v>44579</v>
       </c>
       <c r="B29" t="n">
-        <v>0.988</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44739</v>
+        <v>44580</v>
       </c>
       <c r="B30" t="n">
-        <v>0.993</v>
+        <v>1.4899</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44746</v>
+        <v>44581</v>
       </c>
       <c r="B31" t="n">
-        <v>0.98</v>
+        <v>0.9384</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44753</v>
+        <v>44582</v>
       </c>
       <c r="B32" t="n">
-        <v>0.998</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44760</v>
+        <v>44585</v>
       </c>
       <c r="B33" t="n">
-        <v>0.997</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44767</v>
+        <v>44586</v>
       </c>
       <c r="B34" t="n">
         <v>0.995</v>
@@ -717,66 +717,1562 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44774</v>
+        <v>44587</v>
       </c>
       <c r="B35" t="n">
-        <v>0.90655</v>
+        <v>1.24545</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44781</v>
+        <v>44588</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7800499999999999</v>
+        <v>0.9984999999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44788</v>
+        <v>44589</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44795</v>
+        <v>44590</v>
       </c>
       <c r="B38" t="n">
-        <v>0.99</v>
+        <v>0.3397</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44802</v>
+        <v>44591</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9924999999999999</v>
+        <v>1.1713</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44809</v>
+        <v>44592</v>
       </c>
       <c r="B40" t="n">
-        <v>0.986</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44816</v>
+        <v>44593</v>
       </c>
       <c r="B41" t="n">
-        <v>0.993</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44823</v>
+        <v>44594</v>
       </c>
       <c r="B42" t="n">
         <v>0.998</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44595</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.983</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44596</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.989</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44598</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1.1889</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.1365</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44600</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.9895</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44601</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44602</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.82285</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44603</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1.12975</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5952</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44607</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.875</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44608</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.992</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44609</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.908</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44610</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.96765</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44611</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.3376</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44612</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1.2013</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44613</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.992</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44614</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44615</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.9984999999999999</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44616</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1.4181</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44617</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.8269</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44618</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.3519</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1.1293</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.6143000000000001</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>44623</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.167</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>44624</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.45285</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>44625</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.681</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1.23185</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>44628</v>
+      </c>
+      <c r="B71" t="n">
+        <v>-0.7606999999999999</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1.2253</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.989</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>44632</v>
+      </c>
+      <c r="B75" t="n">
+        <v>-1.4019</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.32155</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="B77" t="n">
+        <v>-0.1628000000000001</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.983</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.16665</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1.5789</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.18315</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.9361999999999999</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.68145</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1.4599</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>44645</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.616</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.992</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="B88" t="n">
+        <v>-1.798</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.33765</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.957</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>44653</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1.7269</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.9715</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1.45455</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1.09665</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.987</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.985</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.76305</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1.244</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>44666</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.9964999999999999</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-1.3938</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.5765</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.329</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>44672</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.76835</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.926</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.5257</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.123</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.4394</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.136</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>44686</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-0.0518</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>44687</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.25835</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.4384</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.1874</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>44692</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-0.3163499999999999</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-0.47385</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.296</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.3808</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>44698</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>44700</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.1581</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>44702</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.985</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.5393000000000001</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>44707</v>
+      </c>
+      <c r="B131" t="n">
+        <v>-0.1733</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.9924999999999999</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.6369</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.527</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.599</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>44717</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.2732</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.2838</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.9715</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.8324</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>44721</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.989</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-0.3815</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>44723</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.6369</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.4713999999999999</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.957</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.8734500000000001</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.6665000000000001</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>44733</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.993</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.37655</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.658</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.414</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>44738</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.0918</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-0.5760000000000001</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.83775</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.164</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.993</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>44745</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-0.06730000000000003</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.2013</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.527</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1.09965</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.9935</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>44758</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.988</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.993</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1.339</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>44766</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.9133</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>44768</v>
+      </c>
+      <c r="B180" t="n">
+        <v>-0.0503</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.6685</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>44773</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.9486999999999999</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1.09815</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>44776</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.9198</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>44777</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.8933</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>44778</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1.0356</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>44780</v>
+      </c>
+      <c r="B190" t="n">
+        <v>-1.1869</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.92145</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.968</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.4422</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>44784</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.3132</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>44785</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.696</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>44787</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.18965</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1.3896</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>44791</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.86615</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1.1872</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.992</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.90645</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>44799</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.5188999999999999</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1.5409</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.1645</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.958</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1.31745</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.985</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>44811</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.532</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.839</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B216" t="n">
+        <v>-0.39235</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1.2013</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>44815</v>
+      </c>
+      <c r="B218" t="n">
+        <v>-0.1917</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B219" t="n">
+        <v>-1.40135</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.12295</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.994</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>44819</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1.15995</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>44820</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1.5096</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>44823</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>44824</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.6970000000000001</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>44825</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1.5399</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>44826</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>44827</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1.1305</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>44828</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.835</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/adjusted_df_news.xlsx
+++ b/Excel reports/adjusted_df_news.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,338 +453,58 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44550</v>
+        <v>44844</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6143000000000001</v>
+        <v>0.75835</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44557</v>
+        <v>44851</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5781000000000001</v>
+        <v>0.8032999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44564</v>
+        <v>44858</v>
       </c>
       <c r="B4" t="n">
-        <v>0.852</v>
+        <v>0.59615</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44571</v>
+        <v>44865</v>
       </c>
       <c r="B5" t="n">
-        <v>0.995</v>
+        <v>0.53295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44578</v>
+        <v>44872</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9924999999999999</v>
+        <v>0.5373</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44585</v>
+        <v>44879</v>
       </c>
       <c r="B7" t="n">
-        <v>0.995</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44592</v>
+        <v>44886</v>
       </c>
       <c r="B8" t="n">
-        <v>0.995</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>44599</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.986</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>44606</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.8704499999999999</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>44613</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9975000000000001</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>44620</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1.1598</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>44627</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>44634</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.19515</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>44641</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.86225</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>44648</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.957</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>44655</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>44662</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.967</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>44669</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.9804999999999999</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>44676</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9895</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>44683</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1.0248</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>44690</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.679</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>44697</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.999</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>44704</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.86465</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>44711</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.996</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>44718</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.956</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>44725</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.957</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>44732</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.988</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>44739</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.993</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>44746</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>44753</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>44760</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.997</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>44767</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.995</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>44774</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.90655</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>44781</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.7800499999999999</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>44788</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.9955000000000001</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>44795</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.99</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>44802</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.9924999999999999</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>44809</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.986</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>44816</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.993</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>44823</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>44830</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.9964999999999999</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>44837</v>
-      </c>
-      <c r="B43" t="n">
-        <v>1.0742</v>
+        <v>0.7139</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/adjusted_df_news.xlsx
+++ b/Excel reports/adjusted_df_news.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,58 +453,858 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44844</v>
+        <v>44782</v>
       </c>
       <c r="B2" t="n">
-        <v>0.75835</v>
+        <v>-0.2472</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44851</v>
+        <v>44783</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8032999999999999</v>
+        <v>0.7218</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44858</v>
+        <v>44784</v>
       </c>
       <c r="B4" t="n">
-        <v>0.59615</v>
+        <v>1.2001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44865</v>
+        <v>44785</v>
       </c>
       <c r="B5" t="n">
-        <v>0.53295</v>
+        <v>0.7502500000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44872</v>
+        <v>44786</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5373</v>
+        <v>0.402</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44879</v>
+        <v>44787</v>
       </c>
       <c r="B7" t="n">
-        <v>0.477</v>
+        <v>0.05880000000000002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.7033</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.0188</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1911</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44791</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.3657</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9764999999999999</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44794</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.3355</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.4544</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.382</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.04769999999999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.41535</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44799</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1387</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44800</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.2378</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44801</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.07900000000000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.7108</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.94465</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.04599999999999999</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.43935</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44807</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.637</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44808</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.454</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.851</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.43085</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44811</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.7914</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.7003</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5151999999999999</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>44815</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.4993</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.7128</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4659</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.971</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>44819</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.3549</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>44820</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.853</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>44821</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.2988</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>44822</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.7019</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>44823</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.772</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>44824</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.991</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>44825</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.948</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>44826</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.4713000000000001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44827</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.986</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44828</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.202</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44829</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.31685</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44830</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.984</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44831</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44832</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.955</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.583</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.8383</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1.4737</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44836</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.60765</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44837</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.9005000000000001</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44838</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.80545</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44839</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.6008</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44840</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44841</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>44842</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.75665</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44843</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44844</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.06564999999999999</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44845</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.1636</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44846</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.87965</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>44847</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>44848</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1.0947</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>44849</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.527</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>44850</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1.10095</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>44851</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.799</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.70605</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>44853</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>44854</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.178</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>44855</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.7344999999999999</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>44856</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.897</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>44857</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44858</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.25315</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44859</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.8542000000000001</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44860</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44861</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44862</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1.0615</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44863</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1.1908</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1.09665</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>44867</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.592</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>44868</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1.2023</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44869</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1.23605</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>44870</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>44871</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.9594</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>44872</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.992</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>44873</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>44874</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>44875</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>44876</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.9695</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1.0673</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>44878</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.1805</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>44879</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.9924999999999999</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>44880</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.994</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>44881</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.655</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>44882</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>44883</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.5718000000000001</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>44885</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.4273</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>44886</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.7139</v>
+      <c r="B103" t="n">
+        <v>0.9984999999999999</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.8400000000000001</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.8016000000000001</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>44889</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.511</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>44891</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.547</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/adjusted_df_news.xlsx
+++ b/Excel reports/adjusted_df_news.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,231 +453,231 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44782</v>
+        <v>43570</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2472</v>
+        <v>1.5056</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44783</v>
+        <v>43976</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7218</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44784</v>
+        <v>44060</v>
       </c>
       <c r="B4" t="n">
-        <v>1.2001</v>
+        <v>1.2013</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44785</v>
+        <v>44067</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7502500000000001</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44786</v>
+        <v>44158</v>
       </c>
       <c r="B6" t="n">
-        <v>0.402</v>
+        <v>1.1995</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44787</v>
+        <v>44165</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05880000000000002</v>
+        <v>0.6774</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44788</v>
+        <v>44172</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7033</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44789</v>
+        <v>44179</v>
       </c>
       <c r="B9" t="n">
-        <v>1.0188</v>
+        <v>1.4364</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44790</v>
+        <v>44186</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1911</v>
+        <v>1.4394</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44791</v>
+        <v>44193</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3657</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44792</v>
+        <v>44207</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9764999999999999</v>
+        <v>0.982</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44794</v>
+        <v>44214</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3355</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44795</v>
+        <v>44221</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4544</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44796</v>
+        <v>44249</v>
       </c>
       <c r="B15" t="n">
-        <v>0.382</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44797</v>
+        <v>44263</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04769999999999999</v>
+        <v>1.6219</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44798</v>
+        <v>44277</v>
       </c>
       <c r="B17" t="n">
-        <v>0.41535</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44799</v>
+        <v>44298</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1387</v>
+        <v>1.1303</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44800</v>
+        <v>44305</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2378</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44801</v>
+        <v>44319</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.07900000000000001</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44802</v>
+        <v>44333</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7108</v>
+        <v>0.8464499999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44803</v>
+        <v>44347</v>
       </c>
       <c r="B22" t="n">
-        <v>0.999</v>
+        <v>1.0171</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44804</v>
+        <v>44361</v>
       </c>
       <c r="B23" t="n">
-        <v>0.94465</v>
+        <v>0.987</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44805</v>
+        <v>44375</v>
       </c>
       <c r="B24" t="n">
-        <v>0.04599999999999999</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44806</v>
+        <v>44382</v>
       </c>
       <c r="B25" t="n">
-        <v>0.43935</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44807</v>
+        <v>44389</v>
       </c>
       <c r="B26" t="n">
-        <v>0.637</v>
+        <v>1.4929</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44808</v>
+        <v>44396</v>
       </c>
       <c r="B27" t="n">
-        <v>0.454</v>
+        <v>0.5096000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44809</v>
+        <v>44403</v>
       </c>
       <c r="B28" t="n">
-        <v>0.851</v>
+        <v>0.8149</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44810</v>
+        <v>44410</v>
       </c>
       <c r="B29" t="n">
-        <v>0.43085</v>
+        <v>0.79545</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44811</v>
+        <v>44417</v>
       </c>
       <c r="B30" t="n">
         <v>0.997</v>
@@ -685,626 +685,394 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44812</v>
+        <v>44424</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7914</v>
+        <v>1.0642</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44813</v>
+        <v>44431</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7003</v>
+        <v>1.08715</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44814</v>
+        <v>44452</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5151999999999999</v>
+        <v>1.4314</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44815</v>
+        <v>44466</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4993</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44816</v>
+        <v>44473</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7128</v>
+        <v>1.6249</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44817</v>
+        <v>44487</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4659</v>
+        <v>0.8379</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44818</v>
+        <v>44494</v>
       </c>
       <c r="B37" t="n">
-        <v>0.971</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44819</v>
+        <v>44501</v>
       </c>
       <c r="B38" t="n">
-        <v>0.3549</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44820</v>
+        <v>44508</v>
       </c>
       <c r="B39" t="n">
-        <v>0.853</v>
+        <v>1.24485</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44821</v>
+        <v>44543</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.2988</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44822</v>
+        <v>44564</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7019</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44823</v>
+        <v>44571</v>
       </c>
       <c r="B42" t="n">
-        <v>0.772</v>
+        <v>1.291</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44824</v>
+        <v>44585</v>
       </c>
       <c r="B43" t="n">
-        <v>0.991</v>
+        <v>1.4452</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44825</v>
+        <v>44592</v>
       </c>
       <c r="B44" t="n">
-        <v>0.948</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44826</v>
+        <v>44599</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4713000000000001</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44827</v>
+        <v>44620</v>
       </c>
       <c r="B46" t="n">
-        <v>0.986</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44828</v>
+        <v>44627</v>
       </c>
       <c r="B47" t="n">
-        <v>0.202</v>
+        <v>1.4859</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44829</v>
+        <v>44634</v>
       </c>
       <c r="B48" t="n">
-        <v>0.31685</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44830</v>
+        <v>44641</v>
       </c>
       <c r="B49" t="n">
-        <v>0.984</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44831</v>
+        <v>44648</v>
       </c>
       <c r="B50" t="n">
-        <v>0.45</v>
+        <v>1.115</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44832</v>
+        <v>44669</v>
       </c>
       <c r="B51" t="n">
-        <v>0.955</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44833</v>
+        <v>44676</v>
       </c>
       <c r="B52" t="n">
-        <v>0.583</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44834</v>
+        <v>44683</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8383</v>
+        <v>1.28395</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44835</v>
+        <v>44704</v>
       </c>
       <c r="B54" t="n">
-        <v>1.4737</v>
+        <v>0.8369</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44836</v>
+        <v>44711</v>
       </c>
       <c r="B55" t="n">
-        <v>0.60765</v>
+        <v>1.461</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44837</v>
+        <v>44718</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9005000000000001</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44838</v>
+        <v>44732</v>
       </c>
       <c r="B57" t="n">
-        <v>0.80545</v>
+        <v>1.013</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44839</v>
+        <v>44739</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6008</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44840</v>
+        <v>44746</v>
       </c>
       <c r="B59" t="n">
-        <v>0.999</v>
+        <v>0.9865999999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44841</v>
+        <v>44760</v>
       </c>
       <c r="B60" t="n">
-        <v>0.625</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44842</v>
+        <v>44767</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.75665</v>
+        <v>-0.081</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44843</v>
+        <v>44774</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44844</v>
+        <v>44781</v>
       </c>
       <c r="B63" t="n">
-        <v>0.06564999999999999</v>
+        <v>1.2152</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44845</v>
+        <v>44795</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1636</v>
+        <v>1.162</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44846</v>
+        <v>44809</v>
       </c>
       <c r="B65" t="n">
-        <v>0.87965</v>
+        <v>1.6466</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44847</v>
+        <v>44823</v>
       </c>
       <c r="B66" t="n">
-        <v>0.997</v>
+        <v>1.6476</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44848</v>
+        <v>44830</v>
       </c>
       <c r="B67" t="n">
-        <v>1.0947</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44849</v>
+        <v>44844</v>
       </c>
       <c r="B68" t="n">
-        <v>0.527</v>
+        <v>1.3223</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>44850</v>
+        <v>44851</v>
       </c>
       <c r="B69" t="n">
-        <v>1.10095</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>44851</v>
+        <v>44858</v>
       </c>
       <c r="B70" t="n">
-        <v>0.799</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>44852</v>
+        <v>44865</v>
       </c>
       <c r="B71" t="n">
-        <v>0.70605</v>
+        <v>0.8523000000000001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>44853</v>
+        <v>44872</v>
       </c>
       <c r="B72" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>44854</v>
+        <v>44879</v>
       </c>
       <c r="B73" t="n">
-        <v>0.178</v>
+        <v>1.2728</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>44855</v>
+        <v>44886</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7344999999999999</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>44856</v>
+        <v>44893</v>
       </c>
       <c r="B75" t="n">
-        <v>0.897</v>
+        <v>1.61275</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>44857</v>
+        <v>44900</v>
       </c>
       <c r="B76" t="n">
-        <v>0.026</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>44858</v>
+        <v>44907</v>
       </c>
       <c r="B77" t="n">
-        <v>0.25315</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>44859</v>
+        <v>44921</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8542000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>44860</v>
+        <v>44928</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8129999999999999</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>44861</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>44862</v>
-      </c>
-      <c r="B81" t="n">
-        <v>1.0615</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>44863</v>
-      </c>
-      <c r="B82" t="n">
-        <v>1.1908</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>44865</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>44866</v>
-      </c>
-      <c r="B84" t="n">
-        <v>1.09665</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>44867</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.592</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
-        <v>44868</v>
-      </c>
-      <c r="B86" t="n">
-        <v>1.2023</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
-        <v>44869</v>
-      </c>
-      <c r="B87" t="n">
-        <v>1.23605</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
-        <v>44870</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.999</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
-        <v>44871</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.9594</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
-        <v>44872</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.992</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
-        <v>44873</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
-        <v>44874</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
-        <v>44875</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
-        <v>44876</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.9695</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
-        <v>44877</v>
-      </c>
-      <c r="B95" t="n">
-        <v>1.0673</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
-        <v>44878</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.1805</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
-        <v>44879</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.9924999999999999</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
-        <v>44880</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.994</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
-        <v>44881</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.655</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
-        <v>44882</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.6909999999999999</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
-        <v>44883</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.5718000000000001</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
-        <v>44885</v>
-      </c>
-      <c r="B102" t="n">
-        <v>1.4273</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>44886</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0.9984999999999999</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>44887</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0.8400000000000001</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>44888</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0.8016000000000001</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>44889</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0.511</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>44890</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>44891</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0.547</v>
+        <v>0.796</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/adjusted_df_news.xlsx
+++ b/Excel reports/adjusted_df_news.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,632 +447,464 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CombinedVaderSentiment</t>
+          <t>TwitterSentiment</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>43570</v>
+        <v>44550</v>
       </c>
       <c r="B2" t="n">
-        <v>1.5056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43976</v>
+        <v>44557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44060</v>
+        <v>44564</v>
       </c>
       <c r="B4" t="n">
-        <v>1.2013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44067</v>
+        <v>44571</v>
       </c>
       <c r="B5" t="n">
-        <v>0.996</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44158</v>
+        <v>44578</v>
       </c>
       <c r="B6" t="n">
-        <v>1.1995</v>
+        <v>0.2385</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44165</v>
+        <v>44585</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6774</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44172</v>
+        <v>44592</v>
       </c>
       <c r="B8" t="n">
-        <v>0.997</v>
+        <v>0.13485</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44179</v>
+        <v>44599</v>
       </c>
       <c r="B9" t="n">
-        <v>1.4364</v>
+        <v>0.0506</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44186</v>
+        <v>44606</v>
       </c>
       <c r="B10" t="n">
-        <v>1.4394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44193</v>
+        <v>44613</v>
       </c>
       <c r="B11" t="n">
-        <v>0.796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44207</v>
+        <v>44620</v>
       </c>
       <c r="B12" t="n">
-        <v>0.982</v>
+        <v>0.0803</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44214</v>
+        <v>44627</v>
       </c>
       <c r="B13" t="n">
-        <v>0.994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44221</v>
+        <v>44634</v>
       </c>
       <c r="B14" t="n">
-        <v>0.988</v>
+        <v>0.0843</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44249</v>
+        <v>44641</v>
       </c>
       <c r="B15" t="n">
-        <v>0.168</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44263</v>
+        <v>44648</v>
       </c>
       <c r="B16" t="n">
-        <v>1.6219</v>
+        <v>-0.1066</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44277</v>
+        <v>44655</v>
       </c>
       <c r="B17" t="n">
-        <v>0.645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44298</v>
+        <v>44662</v>
       </c>
       <c r="B18" t="n">
-        <v>1.1303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44305</v>
+        <v>44669</v>
       </c>
       <c r="B19" t="n">
-        <v>0.998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44319</v>
+        <v>44676</v>
       </c>
       <c r="B20" t="n">
-        <v>0.996</v>
+        <v>0.1242</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44333</v>
+        <v>44683</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8464499999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44347</v>
+        <v>44690</v>
       </c>
       <c r="B22" t="n">
-        <v>1.0171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44361</v>
+        <v>44697</v>
       </c>
       <c r="B23" t="n">
-        <v>0.987</v>
+        <v>0.23555</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44375</v>
+        <v>44704</v>
       </c>
       <c r="B24" t="n">
-        <v>0.546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44382</v>
+        <v>44711</v>
       </c>
       <c r="B25" t="n">
-        <v>0.976</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44389</v>
+        <v>44718</v>
       </c>
       <c r="B26" t="n">
-        <v>1.4929</v>
+        <v>-0.06755</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44396</v>
+        <v>44725</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5096000000000001</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44403</v>
+        <v>44732</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8149</v>
+        <v>0.0459</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44410</v>
+        <v>44739</v>
       </c>
       <c r="B29" t="n">
-        <v>0.79545</v>
+        <v>0.0126</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44417</v>
+        <v>44746</v>
       </c>
       <c r="B30" t="n">
-        <v>0.997</v>
+        <v>-0.01545</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44424</v>
+        <v>44753</v>
       </c>
       <c r="B31" t="n">
-        <v>1.0642</v>
+        <v>0.02055</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44431</v>
+        <v>44760</v>
       </c>
       <c r="B32" t="n">
-        <v>1.08715</v>
+        <v>-0.0723</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44452</v>
+        <v>44767</v>
       </c>
       <c r="B33" t="n">
-        <v>1.4314</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44466</v>
+        <v>44781</v>
       </c>
       <c r="B34" t="n">
-        <v>0.796</v>
+        <v>0.1618</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44473</v>
+        <v>44788</v>
       </c>
       <c r="B35" t="n">
-        <v>1.6249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44487</v>
+        <v>44795</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8379</v>
+        <v>0.2974</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44494</v>
+        <v>44802</v>
       </c>
       <c r="B37" t="n">
-        <v>0.997</v>
+        <v>0.1517</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44501</v>
+        <v>44809</v>
       </c>
       <c r="B38" t="n">
-        <v>0.999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44508</v>
+        <v>44816</v>
       </c>
       <c r="B39" t="n">
-        <v>1.24485</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44543</v>
+        <v>44823</v>
       </c>
       <c r="B40" t="n">
-        <v>0.998</v>
+        <v>0.0757</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44564</v>
+        <v>44830</v>
       </c>
       <c r="B41" t="n">
-        <v>0.872</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44571</v>
+        <v>44837</v>
       </c>
       <c r="B42" t="n">
-        <v>1.291</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44585</v>
+        <v>44844</v>
       </c>
       <c r="B43" t="n">
-        <v>1.4452</v>
+        <v>-0.064</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44592</v>
+        <v>44851</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44599</v>
+        <v>44858</v>
       </c>
       <c r="B45" t="n">
-        <v>0.992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44620</v>
+        <v>44865</v>
       </c>
       <c r="B46" t="n">
-        <v>0.992</v>
+        <v>0.10115</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44627</v>
+        <v>44872</v>
       </c>
       <c r="B47" t="n">
-        <v>1.4859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44634</v>
+        <v>44879</v>
       </c>
       <c r="B48" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44641</v>
+        <v>44886</v>
       </c>
       <c r="B49" t="n">
-        <v>0.996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44648</v>
+        <v>44893</v>
       </c>
       <c r="B50" t="n">
-        <v>1.115</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44669</v>
+        <v>44900</v>
       </c>
       <c r="B51" t="n">
-        <v>0.998</v>
+        <v>0.13045</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44676</v>
+        <v>44907</v>
       </c>
       <c r="B52" t="n">
-        <v>0.995</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44683</v>
+        <v>44914</v>
       </c>
       <c r="B53" t="n">
-        <v>1.28395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44704</v>
+        <v>44921</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8369</v>
+        <v>0.6369</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44711</v>
+        <v>44928</v>
       </c>
       <c r="B55" t="n">
-        <v>1.461</v>
+        <v>0.1931</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44718</v>
+        <v>44935</v>
       </c>
       <c r="B56" t="n">
-        <v>0.375</v>
+        <v>0.17725</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44732</v>
+        <v>44942</v>
       </c>
       <c r="B57" t="n">
-        <v>1.013</v>
+        <v>0.14635</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44739</v>
+        <v>44949</v>
       </c>
       <c r="B58" t="n">
-        <v>0.796</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>44746</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9865999999999999</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>44760</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.986</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>44767</v>
-      </c>
-      <c r="B61" t="n">
-        <v>-0.081</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>44774</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.995</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>44781</v>
-      </c>
-      <c r="B63" t="n">
-        <v>1.2152</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>44795</v>
-      </c>
-      <c r="B64" t="n">
-        <v>1.162</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>44809</v>
-      </c>
-      <c r="B65" t="n">
-        <v>1.6466</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>44823</v>
-      </c>
-      <c r="B66" t="n">
-        <v>1.6476</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>44830</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.796</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>44844</v>
-      </c>
-      <c r="B68" t="n">
-        <v>1.3223</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>44851</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.997</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>44858</v>
-      </c>
-      <c r="B70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>44865</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.8523000000000001</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>44872</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>44879</v>
-      </c>
-      <c r="B73" t="n">
-        <v>1.2728</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>44886</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.994</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>44893</v>
-      </c>
-      <c r="B75" t="n">
-        <v>1.61275</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>44900</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.285</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>44907</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.996</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>44921</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>44928</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.796</v>
+        <v>0.6369</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/adjusted_df_news.xlsx
+++ b/Excel reports/adjusted_df_news.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,13 +447,13 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>TwitterSentiment</t>
+          <t>CombinedVaderSentiment</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44550</v>
+        <v>44935</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -461,450 +461,34 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44557</v>
+        <v>44942</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44564</v>
+        <v>44949</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.5321</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44571</v>
+        <v>44956</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1012</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44578</v>
+        <v>44963</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2385</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>44585</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.2023</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>44592</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.13485</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>44599</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.0506</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>44606</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>44613</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>44620</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.0803</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>44627</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>44634</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.0843</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>44641</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.1012</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>44648</v>
-      </c>
-      <c r="B16" t="n">
-        <v>-0.1066</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>44655</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>44662</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>44669</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>44676</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.1242</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>44683</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>44690</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>44697</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.23555</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>44704</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>44711</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.183</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>44718</v>
-      </c>
-      <c r="B26" t="n">
-        <v>-0.06755</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>44725</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.1012</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>44732</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.0459</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>44739</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.0126</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>44746</v>
-      </c>
-      <c r="B30" t="n">
-        <v>-0.01545</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>44753</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.02055</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>44760</v>
-      </c>
-      <c r="B32" t="n">
-        <v>-0.0723</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>44767</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.0397</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>44781</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.1618</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>44788</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>44795</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.2974</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>44802</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.1517</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>44809</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>44816</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.1012</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>44823</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.0757</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>44830</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.156</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>44837</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.2023</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>44844</v>
-      </c>
-      <c r="B43" t="n">
-        <v>-0.064</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>44851</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>44858</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44865</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.10115</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>44872</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>44879</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>44886</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>44893</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.2023</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>44900</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.13045</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>44907</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.2023</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>44914</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>44921</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.6369</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>44928</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.1931</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>44935</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.17725</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>44942</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.14635</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>44949</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.6369</v>
+        <v>0.4713</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/adjusted_df_news.xlsx
+++ b/Excel reports/adjusted_df_news.xlsx
@@ -456,7 +456,7 @@
         <v>44550</v>
       </c>
       <c r="B2" t="n">
-        <v>0.163</v>
+        <v>0.14745</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>44557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1973</v>
+        <v>0.1186</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>44564</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1404</v>
+        <v>0.1091</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>44571</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1014</v>
+        <v>0.1062</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>44578</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09659999999999999</v>
+        <v>0.1076</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         <v>44585</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1012</v>
+        <v>0.05165</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         <v>44592</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1253</v>
+        <v>0.0759</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         <v>44599</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1123</v>
+        <v>0.1898</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>44606</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0195</v>
+        <v>0.0574</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         <v>44613</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1012</v>
+        <v>0.1061</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         <v>44620</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.1197</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>44627</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08740000000000001</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>44634</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0419</v>
+        <v>0.1089</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>44641</v>
       </c>
       <c r="B15" t="n">
-        <v>0.152</v>
+        <v>0.1141</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>44648</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0912</v>
+        <v>0.1009</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>44655</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0703</v>
+        <v>0.1123</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>44662</v>
       </c>
       <c r="B18" t="n">
-        <v>0.023</v>
+        <v>0.0849</v>
       </c>
     </row>
     <row r="19">
@@ -592,7 +592,7 @@
         <v>44669</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1035</v>
+        <v>0.0815</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>44676</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0801</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>44683</v>
       </c>
       <c r="B21" t="n">
-        <v>0.007</v>
+        <v>0.1028</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         <v>44690</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.1075</v>
       </c>
     </row>
     <row r="23">
@@ -624,7 +624,7 @@
         <v>44697</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0231</v>
+        <v>0.0572</v>
       </c>
     </row>
     <row r="24">
@@ -632,7 +632,7 @@
         <v>44704</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0936</v>
+        <v>0.1228</v>
       </c>
     </row>
     <row r="25">
@@ -640,7 +640,7 @@
         <v>44711</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1352</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>44718</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.0115</v>
+        <v>0.1387</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +656,7 @@
         <v>44725</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0701</v>
+        <v>0.1126</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>44732</v>
       </c>
       <c r="B28" t="n">
-        <v>0.06950000000000001</v>
+        <v>0.1105</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>44739</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0987</v>
+        <v>0.0934</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>44746</v>
       </c>
       <c r="B30" t="n">
-        <v>0.09810000000000001</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>44753</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1131</v>
+        <v>0.1065</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>44760</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2207</v>
+        <v>0.0927</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +704,7 @@
         <v>44767</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1245</v>
+        <v>0.1265</v>
       </c>
     </row>
     <row r="34">
@@ -712,7 +712,7 @@
         <v>44781</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1538</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>44788</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1636</v>
+        <v>0.1556</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>44795</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1488</v>
+        <v>0.1327</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>44802</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1518</v>
+        <v>0.1287</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>44809</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0959</v>
+        <v>0.1581</v>
       </c>
     </row>
     <row r="39">
@@ -752,7 +752,7 @@
         <v>44816</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1193</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="40">
@@ -760,7 +760,7 @@
         <v>44823</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1352</v>
+        <v>0.1044</v>
       </c>
     </row>
     <row r="41">
@@ -768,7 +768,7 @@
         <v>44830</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1616</v>
+        <v>0.1153</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         <v>44837</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1388</v>
+        <v>0.1266</v>
       </c>
     </row>
     <row r="43">
@@ -784,7 +784,7 @@
         <v>44844</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1319</v>
+        <v>0.1054</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>44851</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1323</v>
+        <v>0.1281</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +800,7 @@
         <v>44858</v>
       </c>
       <c r="B45" t="n">
-        <v>0.138</v>
+        <v>0.1276</v>
       </c>
     </row>
     <row r="46">
@@ -808,7 +808,7 @@
         <v>44865</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1726</v>
+        <v>0.1123</v>
       </c>
     </row>
     <row r="47">
@@ -816,7 +816,7 @@
         <v>44872</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1534</v>
+        <v>0.08459999999999999</v>
       </c>
     </row>
     <row r="48">
@@ -824,7 +824,7 @@
         <v>44879</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1733</v>
+        <v>0.1137</v>
       </c>
     </row>
     <row r="49">
@@ -832,7 +832,7 @@
         <v>44886</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1537</v>
+        <v>0.1155</v>
       </c>
     </row>
     <row r="50">
@@ -840,7 +840,7 @@
         <v>44893</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1692</v>
+        <v>0.1268</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +848,7 @@
         <v>44900</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1923</v>
+        <v>0.0717</v>
       </c>
     </row>
     <row r="52">
@@ -856,7 +856,7 @@
         <v>44907</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2049</v>
+        <v>0.0805</v>
       </c>
     </row>
     <row r="53">
@@ -864,7 +864,7 @@
         <v>44914</v>
       </c>
       <c r="B53" t="n">
-        <v>0.2075</v>
+        <v>0.1056</v>
       </c>
     </row>
     <row r="54">
@@ -872,7 +872,7 @@
         <v>44921</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1772</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +880,7 @@
         <v>44928</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1961</v>
+        <v>0.09039999999999999</v>
       </c>
     </row>
     <row r="56">
@@ -888,7 +888,7 @@
         <v>44935</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1749</v>
+        <v>0.07389999999999999</v>
       </c>
     </row>
     <row r="57">
@@ -896,7 +896,7 @@
         <v>44942</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2186</v>
+        <v>0.1241</v>
       </c>
     </row>
     <row r="58">
@@ -904,7 +904,7 @@
         <v>44949</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1381</v>
+        <v>0.1436</v>
       </c>
     </row>
     <row r="59">
@@ -912,7 +912,7 @@
         <v>44956</v>
       </c>
       <c r="B59" t="n">
-        <v>0.14</v>
+        <v>0.1497</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>44963</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1399</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="61">
@@ -928,7 +928,7 @@
         <v>44970</v>
       </c>
       <c r="B61" t="n">
-        <v>0.201</v>
+        <v>0.1052</v>
       </c>
     </row>
     <row r="62">
@@ -936,7 +936,7 @@
         <v>44977</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1278</v>
+        <v>0.1156</v>
       </c>
     </row>
     <row r="63">
@@ -944,7 +944,7 @@
         <v>44984</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1782</v>
+        <v>0.1958</v>
       </c>
     </row>
     <row r="64">
@@ -952,7 +952,7 @@
         <v>44991</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1551</v>
+        <v>0.1185</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/adjusted_df_news.xlsx
+++ b/Excel reports/adjusted_df_news.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,506 +453,3418 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44550</v>
+        <v>44551</v>
       </c>
       <c r="B2" t="n">
-        <v>0.14745</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44557</v>
+        <v>44552</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1186</v>
+        <v>0.1117</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44564</v>
+        <v>44553</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1091</v>
+        <v>0.1318</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44571</v>
+        <v>44554</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1062</v>
+        <v>0.1631</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44578</v>
+        <v>44555</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1076</v>
+        <v>0.1683</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44585</v>
+        <v>44556</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05165</v>
+        <v>0.165</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44592</v>
+        <v>44557</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0759</v>
+        <v>0.1186</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44599</v>
+        <v>44558</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1898</v>
+        <v>0.1067</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44606</v>
+        <v>44559</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0574</v>
+        <v>0.1262</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44613</v>
+        <v>44560</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1061</v>
+        <v>0.0993</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44620</v>
+        <v>44561</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1197</v>
+        <v>0.1378</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44627</v>
+        <v>44562</v>
       </c>
       <c r="B13" t="n">
-        <v>0.115</v>
+        <v>0.1225</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44634</v>
+        <v>44563</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1089</v>
+        <v>0.0809</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44641</v>
+        <v>44564</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1141</v>
+        <v>0.1091</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44648</v>
+        <v>44565</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1009</v>
+        <v>0.1125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44655</v>
+        <v>44566</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1123</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44662</v>
+        <v>44567</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0849</v>
+        <v>0.0828</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44669</v>
+        <v>44568</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0815</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44676</v>
+        <v>44569</v>
       </c>
       <c r="B20" t="n">
-        <v>0.077</v>
+        <v>0.1425</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44683</v>
+        <v>44570</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1028</v>
+        <v>0.1297</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44690</v>
+        <v>44571</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1075</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44697</v>
+        <v>44572</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0572</v>
+        <v>0.1082</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44704</v>
+        <v>44573</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1228</v>
+        <v>0.1062</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44711</v>
+        <v>44574</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1012</v>
+        <v>0.0699</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44718</v>
+        <v>44575</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1387</v>
+        <v>0.1048</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44725</v>
+        <v>44576</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1126</v>
+        <v>0.1045</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44732</v>
+        <v>44577</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1105</v>
+        <v>0.1274</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44739</v>
+        <v>44578</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0934</v>
+        <v>0.1182</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44746</v>
+        <v>44579</v>
       </c>
       <c r="B30" t="n">
-        <v>0.11</v>
+        <v>0.0847</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44753</v>
+        <v>44580</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1065</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44760</v>
+        <v>44581</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0927</v>
+        <v>0.1275</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44767</v>
+        <v>44588</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1265</v>
+        <v>0.4215</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44781</v>
+        <v>44590</v>
       </c>
       <c r="B34" t="n">
-        <v>0.137</v>
+        <v>-0.3182</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44788</v>
+        <v>44593</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44795</v>
+        <v>44595</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1327</v>
+        <v>0.0759</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44802</v>
+        <v>44596</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1287</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44809</v>
+        <v>44597</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1581</v>
+        <v>0.1646</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44816</v>
+        <v>44598</v>
       </c>
       <c r="B39" t="n">
-        <v>0.142</v>
+        <v>0.2947</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44823</v>
+        <v>44599</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1044</v>
+        <v>0.2019</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44830</v>
+        <v>44600</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1153</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44837</v>
+        <v>44601</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1266</v>
+        <v>0.2259</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44844</v>
+        <v>44602</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1054</v>
+        <v>0.0755</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44851</v>
+        <v>44603</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1281</v>
+        <v>0.1777</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44858</v>
+        <v>44604</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1276</v>
+        <v>0.1898</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44865</v>
+        <v>44605</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1123</v>
+        <v>0.0878</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44872</v>
+        <v>44606</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08459999999999999</v>
+        <v>0.0341</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44879</v>
+        <v>44607</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1137</v>
+        <v>0.1652</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44886</v>
+        <v>44608</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1155</v>
+        <v>-0.0418</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44893</v>
+        <v>44609</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1268</v>
+        <v>0.0574</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44900</v>
+        <v>44610</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0717</v>
+        <v>0.0931</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44907</v>
+        <v>44611</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0805</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44914</v>
+        <v>44612</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1056</v>
+        <v>0.2655</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44921</v>
+        <v>44613</v>
       </c>
       <c r="B54" t="n">
-        <v>0.082</v>
+        <v>0.06619999999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44928</v>
+        <v>44614</v>
       </c>
       <c r="B55" t="n">
-        <v>0.09039999999999999</v>
+        <v>0.1448</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44935</v>
+        <v>44615</v>
       </c>
       <c r="B56" t="n">
-        <v>0.07389999999999999</v>
+        <v>0.1345</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44942</v>
+        <v>44616</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1241</v>
+        <v>0.1499</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44949</v>
+        <v>44617</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1436</v>
+        <v>0.0355</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44956</v>
+        <v>44618</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1497</v>
+        <v>0.1061</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44963</v>
+        <v>44619</v>
       </c>
       <c r="B60" t="n">
-        <v>0.135</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44970</v>
+        <v>44620</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1052</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44977</v>
+        <v>44621</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1156</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44984</v>
+        <v>44622</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1958</v>
+        <v>0.1338</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
+        <v>44623</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.08210000000000001</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44624</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.0892</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>44625</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>44626</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.1197</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.1414</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>44628</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.0955</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.1186</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.0994</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.1734</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>44632</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>44633</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.067</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.057</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.1987</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.1074</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.1101</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.1089</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.0414</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44640</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.2643</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.1071</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.116</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.1369</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.1141</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>44645</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.1052</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>44646</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.1141</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>44647</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.1629</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.1604</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.08840000000000001</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.1269</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.0741</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>44653</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>44654</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.1308</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.08939999999999999</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.1123</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.1146</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.1105</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.1226</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>44660</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.1086</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>44661</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.1386</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.0849</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.0969</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.0823</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>44666</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>44667</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.0341</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>44668</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.0979</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.0815</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.0482</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>44672</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.0174</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.0442</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>44674</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.1117</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>44675</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.0864</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.0272</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.0707</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.0525</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.0911</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.1184</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>44681</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.1041</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.077</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.1225</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.1173</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.1028</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>44686</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.0968</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>44687</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.1374</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>44688</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.07770000000000001</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>44689</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.0738</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.0838</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.0403</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>44692</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.1632</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.1075</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.0771</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>44695</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.1888</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>44696</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.1528</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.0572</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>44698</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-0.0276</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-0.0226</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>44700</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.06469999999999999</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.0129</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>44702</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.1382</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>44703</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.1093</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.07240000000000001</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.07729999999999999</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.1465</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>44707</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.1228</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.1312</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>44709</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.0436</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>44710</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.1664</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.1341</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.0985</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.0871</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.0856</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>44716</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.1012</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>44717</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.1209</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.0951</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.1293</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.0944</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>44721</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.1387</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.1541</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>44723</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.2231</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>44724</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.2385</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.09719999999999999</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.0939</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.1186</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.1126</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>44730</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.138</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>44731</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.1472</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.1368</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>44733</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.1193</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.1018</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.0867</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.1105</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>44737</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.1766</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>44738</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.0866</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.116</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.1142</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.0934</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.0526</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.0781</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>44744</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.0997</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>44745</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.08359999999999999</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.0721</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.0833</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.0725</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.1312</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>44751</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.1411</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>44752</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.1582</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.1143</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>44754</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.0993</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.1065</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.1169</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.08939999999999999</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>44758</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.0925</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>44759</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.1656</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.0828</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.08069999999999999</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.09370000000000001</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.0927</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.0762</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>44765</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.1713</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>44766</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.1561</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.1197</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>44768</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.1265</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.09180000000000001</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.1357</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.234</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="B213" t="n">
+        <v>-0.1167</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.1601</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>44784</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.1395</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>44785</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.1009</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>44786</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.1675</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>44787</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.1345</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.131</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.1394</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.1204</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>44791</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.1556</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.1717</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>44793</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.1732</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>44794</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.1693</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.1327</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.1186</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.1282</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.1508</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>44799</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.1228</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>44800</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.1482</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>44801</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.167</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.1109</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.1238</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.1132</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.1287</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.1554</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>44807</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.2458</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>44808</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.1581</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.1107</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>44811</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.1723</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.1894</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0.1434</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>44814</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.1518</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>44815</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.2117</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.1431</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0.1259</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0.0961</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>44819</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0.142</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>44820</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>44821</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.1559</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>44822</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0.1244</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>44823</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.09320000000000001</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>44824</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.09320000000000001</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44825</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.1141</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>44826</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0.089</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>44827</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.1044</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44828</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.132</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44829</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.1659</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>44830</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.1508</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>44831</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.1348</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>44832</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.1141</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>44833</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.0984</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0.0959</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>44836</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.1153</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>44837</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.1065</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>44838</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0.1266</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>44839</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.1668</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>44840</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0.1655</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>44841</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.1474</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>44842</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.09420000000000001</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>44843</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.0906</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>44844</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.1131</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>44845</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.0922</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>44846</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.1159</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>44847</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.1033</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>44848</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.0912</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>44849</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.1054</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>44850</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.1538</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>44851</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.1281</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>44852</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>44853</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.1155</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>44854</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.0956</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>44855</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.1303</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>44856</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.1981</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>44857</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.2109</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>44858</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0.0616</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>44859</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0.1318</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>44860</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0.1062</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>44861</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.1265</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>44862</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0.1554</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>44863</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.1276</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>44864</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.195</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.1006</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0.1452</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="n">
+        <v>44867</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="n">
+        <v>44868</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0.1123</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2" t="n">
+        <v>44869</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0.0788</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2" t="n">
+        <v>44870</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0.1577</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="n">
+        <v>44871</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0.2103</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="n">
+        <v>44872</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.0227</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="n">
+        <v>44873</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0.0339</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="n">
+        <v>44874</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0.1581</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="n">
+        <v>44875</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0.0649</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="n">
+        <v>44876</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0.116</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="n">
+        <v>44877</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0.1065</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="n">
+        <v>44878</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0.08459999999999999</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="n">
+        <v>44879</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0.0842</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="n">
+        <v>44880</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0.1046</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n">
+        <v>44881</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="n">
+        <v>44882</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0.1137</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="n">
+        <v>44883</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0.1159</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2" t="n">
+        <v>44884</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0.1228</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="n">
+        <v>44885</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0.1287</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.1042</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.0885</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.09130000000000001</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="n">
+        <v>44889</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.164</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0.1335</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="n">
+        <v>44891</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0.1366</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="n">
+        <v>44892</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0.1155</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0.09959999999999999</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0.0009</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0.1268</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0.1138</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0.2151</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="n">
+        <v>44898</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0.1456</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="n">
+        <v>44899</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.0717</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.0779</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="n">
+        <v>44903</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0.0609</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="n">
+        <v>44904</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0.0533</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="n">
+        <v>44905</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0.07530000000000001</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="n">
+        <v>44906</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0.1609</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="B338" t="n">
+        <v>0.08019999999999999</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0.07820000000000001</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0.0849</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="n">
+        <v>44910</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0.1471</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="n">
+        <v>44911</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0.0743</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>44912</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0.0805</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>44913</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0.1019</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0.1105</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n">
+        <v>44915</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0.0941</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>44916</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0.1114</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>44917</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0.1056</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>44918</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0.0822</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>44919</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0.1129</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>44920</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0.0917</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0.0809</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>44922</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0.0101</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>44923</v>
+      </c>
+      <c r="B354" t="n">
+        <v>0.0692</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>44924</v>
+      </c>
+      <c r="B355" t="n">
+        <v>0.082</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B356" t="n">
+        <v>0.1135</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0.1308</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0.09619999999999999</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>44928</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0.0559</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="n">
+        <v>44929</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0.0588</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>44930</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0.09039999999999999</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2" t="n">
+        <v>44931</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0.09710000000000001</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2" t="n">
+        <v>44932</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0.0243</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2" t="n">
+        <v>44933</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0.0905</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2" t="n">
+        <v>44934</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0.1028</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0.0387</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="B367" t="n">
+        <v>-0.0472</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2" t="n">
+        <v>44937</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0.07389999999999999</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2" t="n">
+        <v>44938</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0.102</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2" t="n">
+        <v>44939</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0.0735</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2" t="n">
+        <v>44940</v>
+      </c>
+      <c r="B371" t="n">
+        <v>0.077</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2" t="n">
+        <v>44941</v>
+      </c>
+      <c r="B372" t="n">
+        <v>0.1027</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0.1185</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0.1149</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2" t="n">
+        <v>44944</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0.08069999999999999</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2" t="n">
+        <v>44945</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0.1256</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2" t="n">
+        <v>44946</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0.1241</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2" t="n">
+        <v>44947</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0.1378</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2" t="n">
+        <v>44948</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0.1626</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="B380" t="n">
+        <v>0.1338</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2" t="n">
+        <v>44950</v>
+      </c>
+      <c r="B381" t="n">
+        <v>0.1072</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2" t="n">
+        <v>44951</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0.0902</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2" t="n">
+        <v>44952</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0.1753</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2" t="n">
+        <v>44953</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0.1464</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2" t="n">
+        <v>44954</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0.1436</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2" t="n">
+        <v>44955</v>
+      </c>
+      <c r="B386" t="n">
+        <v>0.1471</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="B387" t="n">
+        <v>0.1257</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B388" t="n">
+        <v>0.1315</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B389" t="n">
+        <v>0.1497</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
+        <v>44959</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0.1526</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>44960</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0.1706</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>44961</v>
+      </c>
+      <c r="B392" t="n">
+        <v>0.1887</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>44962</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0.1032</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0.135</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2" t="n">
+        <v>44964</v>
+      </c>
+      <c r="B395" t="n">
+        <v>0.1308</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2" t="n">
+        <v>44965</v>
+      </c>
+      <c r="B396" t="n">
+        <v>0.1411</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2" t="n">
+        <v>44966</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0.1208</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2" t="n">
+        <v>44967</v>
+      </c>
+      <c r="B398" t="n">
+        <v>0.1368</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2" t="n">
+        <v>44968</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0.1455</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2" t="n">
+        <v>44969</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0.07389999999999999</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="B401" t="n">
+        <v>-0.07829999999999999</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="B402" t="n">
+        <v>0.1646</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2" t="n">
+        <v>44972</v>
+      </c>
+      <c r="B403" t="n">
+        <v>0.1043</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2" t="n">
+        <v>44973</v>
+      </c>
+      <c r="B404" t="n">
+        <v>0.1052</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2" t="n">
+        <v>44974</v>
+      </c>
+      <c r="B405" t="n">
+        <v>0.1278</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2" t="n">
+        <v>44975</v>
+      </c>
+      <c r="B406" t="n">
+        <v>0.1031</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2" t="n">
+        <v>44976</v>
+      </c>
+      <c r="B407" t="n">
+        <v>0.1962</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="B408" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2" t="n">
+        <v>44978</v>
+      </c>
+      <c r="B409" t="n">
+        <v>0.0107</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="2" t="n">
+        <v>44979</v>
+      </c>
+      <c r="B410" t="n">
+        <v>0.09660000000000001</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="2" t="n">
+        <v>44980</v>
+      </c>
+      <c r="B411" t="n">
+        <v>0.1513</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="2" t="n">
+        <v>44981</v>
+      </c>
+      <c r="B412" t="n">
+        <v>0.1156</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="2" t="n">
+        <v>44982</v>
+      </c>
+      <c r="B413" t="n">
+        <v>0.0466</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="2" t="n">
+        <v>44983</v>
+      </c>
+      <c r="B414" t="n">
+        <v>0.1252</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="B415" t="n">
+        <v>0.1533</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B416" t="n">
+        <v>0.2027</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B417" t="n">
+        <v>0.1843</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="2" t="n">
+        <v>44987</v>
+      </c>
+      <c r="B418" t="n">
+        <v>0.1816</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="2" t="n">
+        <v>44988</v>
+      </c>
+      <c r="B419" t="n">
+        <v>0.1958</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="2" t="n">
+        <v>44989</v>
+      </c>
+      <c r="B420" t="n">
+        <v>0.2134</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="2" t="n">
+        <v>44990</v>
+      </c>
+      <c r="B421" t="n">
+        <v>0.2476</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="2" t="n">
         <v>44991</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B422" t="n">
         <v>0.1185</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="B423" t="n">
+        <v>0.1045</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="2" t="n">
+        <v>44993</v>
+      </c>
+      <c r="B424" t="n">
+        <v>0.0626</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="2" t="n">
+        <v>44994</v>
+      </c>
+      <c r="B425" t="n">
+        <v>0.1553</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="2" t="n">
+        <v>44995</v>
+      </c>
+      <c r="B426" t="n">
+        <v>0.2272</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2" t="n">
+        <v>44996</v>
+      </c>
+      <c r="B427" t="n">
+        <v>0.2014</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="2" t="n">
+        <v>44997</v>
+      </c>
+      <c r="B428" t="n">
+        <v>0.0692</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/adjusted_df_news.xlsx
+++ b/Excel reports/adjusted_df_news.xlsx
@@ -456,7 +456,7 @@
         <v>44550</v>
       </c>
       <c r="B2" t="n">
-        <v>0.14745</v>
+        <v>0.2011</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>44557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1186</v>
+        <v>0.2067</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>44564</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1091</v>
+        <v>0.1483</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>44571</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1062</v>
+        <v>0.1123</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>44578</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1076</v>
+        <v>0.1167</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         <v>44585</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         <v>44592</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         <v>44599</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1898</v>
+        <v>0.0786</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>44606</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0574</v>
+        <v>0.0582</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         <v>44613</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1061</v>
+        <v>0.1217</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         <v>44620</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1197</v>
+        <v>0.1101</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>44627</v>
       </c>
       <c r="B13" t="n">
-        <v>0.115</v>
+        <v>0.2358</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>44634</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1089</v>
+        <v>0.2696</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>44641</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1141</v>
+        <v>0.2114</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>44648</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1009</v>
+        <v>0.1572</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>44655</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1123</v>
+        <v>0.1078</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>44662</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0849</v>
+        <v>0.0767</v>
       </c>
     </row>
     <row r="19">
@@ -592,7 +592,7 @@
         <v>44669</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0815</v>
+        <v>0.1024</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>44676</v>
       </c>
       <c r="B20" t="n">
-        <v>0.077</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>44683</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1028</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         <v>44690</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -624,7 +624,7 @@
         <v>44697</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0572</v>
+        <v>0.0707</v>
       </c>
     </row>
     <row r="24">
@@ -632,7 +632,7 @@
         <v>44704</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1228</v>
+        <v>0.1372</v>
       </c>
     </row>
     <row r="25">
@@ -640,7 +640,7 @@
         <v>44711</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1012</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>44718</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1387</v>
+        <v>0.0948</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +656,7 @@
         <v>44725</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1126</v>
+        <v>0.1201</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>44732</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1105</v>
+        <v>0.0589</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>44739</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0934</v>
+        <v>0.0775</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>44746</v>
       </c>
       <c r="B30" t="n">
-        <v>0.11</v>
+        <v>0.1642</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>44753</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1065</v>
+        <v>0.0926</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>44760</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0927</v>
+        <v>0.1805</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +704,7 @@
         <v>44767</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1265</v>
+        <v>0.1912</v>
       </c>
     </row>
     <row r="34">
@@ -712,7 +712,7 @@
         <v>44781</v>
       </c>
       <c r="B34" t="n">
-        <v>0.137</v>
+        <v>0.1785</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>44788</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1556</v>
+        <v>0.1674</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>44795</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1327</v>
+        <v>0.1889</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>44802</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1287</v>
+        <v>0.1983</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>44809</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1581</v>
+        <v>0.1778</v>
       </c>
     </row>
     <row r="39">
@@ -752,7 +752,7 @@
         <v>44816</v>
       </c>
       <c r="B39" t="n">
-        <v>0.142</v>
+        <v>0.1791</v>
       </c>
     </row>
     <row r="40">
@@ -760,7 +760,7 @@
         <v>44823</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1044</v>
+        <v>0.1323</v>
       </c>
     </row>
     <row r="41">
@@ -768,7 +768,7 @@
         <v>44830</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1153</v>
+        <v>0.1059</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         <v>44837</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1266</v>
+        <v>0.0992</v>
       </c>
     </row>
     <row r="43">
@@ -784,7 +784,7 @@
         <v>44844</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1054</v>
+        <v>0.1217</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>44851</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1281</v>
+        <v>0.1602</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +800,7 @@
         <v>44858</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1276</v>
+        <v>0.1396</v>
       </c>
     </row>
     <row r="46">
@@ -808,7 +808,7 @@
         <v>44865</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1123</v>
+        <v>0.1402</v>
       </c>
     </row>
     <row r="47">
@@ -816,7 +816,7 @@
         <v>44872</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08459999999999999</v>
+        <v>0.1544</v>
       </c>
     </row>
     <row r="48">
@@ -824,7 +824,7 @@
         <v>44879</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1137</v>
+        <v>0.1612</v>
       </c>
     </row>
     <row r="49">
@@ -832,7 +832,7 @@
         <v>44886</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1155</v>
+        <v>0.1676</v>
       </c>
     </row>
     <row r="50">
@@ -840,7 +840,7 @@
         <v>44893</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1268</v>
+        <v>0.1376</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +848,7 @@
         <v>44900</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0717</v>
+        <v>0.1182</v>
       </c>
     </row>
     <row r="52">
@@ -856,7 +856,7 @@
         <v>44907</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0805</v>
+        <v>0.1273</v>
       </c>
     </row>
     <row r="53">
@@ -864,7 +864,7 @@
         <v>44914</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1056</v>
+        <v>0.1384</v>
       </c>
     </row>
     <row r="54">
@@ -872,7 +872,7 @@
         <v>44921</v>
       </c>
       <c r="B54" t="n">
-        <v>0.082</v>
+        <v>0.1557</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +880,7 @@
         <v>44928</v>
       </c>
       <c r="B55" t="n">
-        <v>0.09039999999999999</v>
+        <v>0.1346</v>
       </c>
     </row>
     <row r="56">
@@ -888,7 +888,7 @@
         <v>44935</v>
       </c>
       <c r="B56" t="n">
-        <v>0.07389999999999999</v>
+        <v>0.1304</v>
       </c>
     </row>
     <row r="57">
@@ -896,7 +896,7 @@
         <v>44942</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1241</v>
+        <v>-0.09420000000000001</v>
       </c>
     </row>
     <row r="58">
@@ -904,7 +904,7 @@
         <v>44949</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1436</v>
+        <v>0.0835</v>
       </c>
     </row>
     <row r="59">
@@ -912,7 +912,7 @@
         <v>44956</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1497</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>44963</v>
       </c>
       <c r="B60" t="n">
-        <v>0.135</v>
+        <v>0.1257</v>
       </c>
     </row>
     <row r="61">
@@ -928,7 +928,7 @@
         <v>44970</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1052</v>
+        <v>0.1317</v>
       </c>
     </row>
     <row r="62">
@@ -936,7 +936,7 @@
         <v>44977</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1156</v>
+        <v>0.1771</v>
       </c>
     </row>
     <row r="63">
@@ -944,7 +944,7 @@
         <v>44984</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1958</v>
+        <v>0.1383</v>
       </c>
     </row>
     <row r="64">
@@ -952,7 +952,7 @@
         <v>44991</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1185</v>
+        <v>0.0876</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/adjusted_df_news.xlsx
+++ b/Excel reports/adjusted_df_news.xlsx
@@ -456,7 +456,7 @@
         <v>44550</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>44557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>44564</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>44571</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1123</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>44578</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1167</v>
+        <v>0.2385</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         <v>44585</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         <v>44592</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.13485</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         <v>44599</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0786</v>
+        <v>0.0506</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>44606</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         <v>44613</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         <v>44620</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1101</v>
+        <v>0.0803</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>44627</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>44634</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2696</v>
+        <v>0.0843</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>44641</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2114</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>44648</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1572</v>
+        <v>-0.1066</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>44655</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>44662</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -592,7 +592,7 @@
         <v>44669</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>44676</v>
       </c>
       <c r="B20" t="n">
-        <v>0.099</v>
+        <v>0.1242</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>44683</v>
       </c>
       <c r="B21" t="n">
-        <v>0.008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -624,7 +624,7 @@
         <v>44697</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0707</v>
+        <v>0.23555</v>
       </c>
     </row>
     <row r="24">
@@ -632,7 +632,7 @@
         <v>44704</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -640,7 +640,7 @@
         <v>44711</v>
       </c>
       <c r="B25" t="n">
-        <v>0.064</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>44718</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0948</v>
+        <v>-0.06755</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +656,7 @@
         <v>44725</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1201</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>44732</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0589</v>
+        <v>0.0459</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>44739</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0775</v>
+        <v>0.0126</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>44746</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1642</v>
+        <v>-0.01545</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>44753</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0926</v>
+        <v>0.02055</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>44760</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1805</v>
+        <v>-0.0723</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +704,7 @@
         <v>44767</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1912</v>
+        <v>0.0397</v>
       </c>
     </row>
     <row r="34">
@@ -712,7 +712,7 @@
         <v>44781</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1785</v>
+        <v>0.1618</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>44788</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>44795</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1889</v>
+        <v>0.2974</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>44802</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1983</v>
+        <v>0.1517</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>44809</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -752,7 +752,7 @@
         <v>44816</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1791</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="40">
@@ -760,7 +760,7 @@
         <v>44823</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1323</v>
+        <v>0.0757</v>
       </c>
     </row>
     <row r="41">
@@ -768,7 +768,7 @@
         <v>44830</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1059</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         <v>44837</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0992</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="43">
@@ -784,7 +784,7 @@
         <v>44844</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1217</v>
+        <v>-0.064</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>44851</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +800,7 @@
         <v>44858</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -808,7 +808,7 @@
         <v>44865</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1402</v>
+        <v>0.10115</v>
       </c>
     </row>
     <row r="47">
@@ -816,7 +816,7 @@
         <v>44872</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -824,7 +824,7 @@
         <v>44879</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -832,7 +832,7 @@
         <v>44886</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -840,7 +840,7 @@
         <v>44893</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1376</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +848,7 @@
         <v>44900</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1182</v>
+        <v>0.13045</v>
       </c>
     </row>
     <row r="52">
@@ -856,7 +856,7 @@
         <v>44907</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1273</v>
+        <v>0.2023</v>
       </c>
     </row>
     <row r="53">
@@ -864,7 +864,7 @@
         <v>44914</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -872,7 +872,7 @@
         <v>44921</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1557</v>
+        <v>0.6369</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +880,7 @@
         <v>44928</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1346</v>
+        <v>0.1931</v>
       </c>
     </row>
     <row r="56">
@@ -888,7 +888,7 @@
         <v>44935</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1304</v>
+        <v>0.17725</v>
       </c>
     </row>
     <row r="57">
@@ -896,7 +896,7 @@
         <v>44942</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.09420000000000001</v>
+        <v>0.14635</v>
       </c>
     </row>
     <row r="58">
@@ -904,7 +904,7 @@
         <v>44949</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0835</v>
+        <v>0.6369</v>
       </c>
     </row>
     <row r="59">
@@ -912,7 +912,7 @@
         <v>44956</v>
       </c>
       <c r="B59" t="n">
-        <v>0.116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>44963</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1257</v>
+        <v>0.36905</v>
       </c>
     </row>
     <row r="61">
@@ -928,7 +928,7 @@
         <v>44970</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1317</v>
+        <v>0.6369</v>
       </c>
     </row>
     <row r="62">
@@ -936,7 +936,7 @@
         <v>44977</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1771</v>
+        <v>0.10115</v>
       </c>
     </row>
     <row r="63">
@@ -944,7 +944,7 @@
         <v>44984</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1383</v>
+        <v>0.4609</v>
       </c>
     </row>
     <row r="64">
@@ -952,7 +952,7 @@
         <v>44991</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0876</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/adjusted_df_news.xlsx
+++ b/Excel reports/adjusted_df_news.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,512 +447,680 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>TwitterSentiment</t>
+          <t>CombinedVaderSentiment</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44550</v>
+        <v>43570</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.5056</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44557</v>
+        <v>43976</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44564</v>
+        <v>44060</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1.2013</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44571</v>
+        <v>44067</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1012</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44578</v>
+        <v>44158</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2385</v>
+        <v>1.1995</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44585</v>
+        <v>44165</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2023</v>
+        <v>0.6774</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44592</v>
+        <v>44172</v>
       </c>
       <c r="B8" t="n">
-        <v>0.13485</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44599</v>
+        <v>44179</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0506</v>
+        <v>1.4364</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44606</v>
+        <v>44186</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1.4394</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44613</v>
+        <v>44193</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44620</v>
+        <v>44207</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0803</v>
+        <v>0.982</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44627</v>
+        <v>44214</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.994</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44634</v>
+        <v>44221</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0843</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44641</v>
+        <v>44249</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1012</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44648</v>
+        <v>44263</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.1066</v>
+        <v>1.6219</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44655</v>
+        <v>44277</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44662</v>
+        <v>44298</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1.1303</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44669</v>
+        <v>44305</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44676</v>
+        <v>44319</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1242</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44683</v>
+        <v>44333</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.8464499999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44690</v>
+        <v>44347</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.0171</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44697</v>
+        <v>44361</v>
       </c>
       <c r="B23" t="n">
-        <v>0.23555</v>
+        <v>0.987</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44704</v>
+        <v>44375</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44711</v>
+        <v>44382</v>
       </c>
       <c r="B25" t="n">
-        <v>0.183</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44718</v>
+        <v>44389</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.06755</v>
+        <v>1.4929</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44725</v>
+        <v>44396</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1012</v>
+        <v>0.5096000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44732</v>
+        <v>44403</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0459</v>
+        <v>0.8149</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44739</v>
+        <v>44410</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0126</v>
+        <v>0.79545</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44746</v>
+        <v>44417</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.01545</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44753</v>
+        <v>44424</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02055</v>
+        <v>1.0642</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44760</v>
+        <v>44431</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.0723</v>
+        <v>1.08715</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44767</v>
+        <v>44452</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0397</v>
+        <v>1.4314</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44781</v>
+        <v>44466</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1618</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44788</v>
+        <v>44473</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.6249</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44795</v>
+        <v>44487</v>
       </c>
       <c r="B36" t="n">
-        <v>0.2974</v>
+        <v>0.8379</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44802</v>
+        <v>44494</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1517</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44809</v>
+        <v>44501</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44816</v>
+        <v>44508</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1012</v>
+        <v>1.24485</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44823</v>
+        <v>44543</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0757</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44830</v>
+        <v>44564</v>
       </c>
       <c r="B41" t="n">
-        <v>0.156</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44837</v>
+        <v>44571</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2023</v>
+        <v>1.291</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44844</v>
+        <v>44585</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.064</v>
+        <v>1.4452</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44851</v>
+        <v>44592</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44858</v>
+        <v>44599</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44865</v>
+        <v>44620</v>
       </c>
       <c r="B46" t="n">
-        <v>0.10115</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44872</v>
+        <v>44627</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1.4859</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44879</v>
+        <v>44634</v>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44886</v>
+        <v>44641</v>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44893</v>
+        <v>44648</v>
       </c>
       <c r="B50" t="n">
-        <v>0.2023</v>
+        <v>1.115</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44900</v>
+        <v>44669</v>
       </c>
       <c r="B51" t="n">
-        <v>0.13045</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44907</v>
+        <v>44676</v>
       </c>
       <c r="B52" t="n">
-        <v>0.2023</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44914</v>
+        <v>44683</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>1.28395</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44921</v>
+        <v>44704</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6369</v>
+        <v>0.8369</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44928</v>
+        <v>44711</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1931</v>
+        <v>1.461</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44935</v>
+        <v>44718</v>
       </c>
       <c r="B56" t="n">
-        <v>0.17725</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44942</v>
+        <v>44732</v>
       </c>
       <c r="B57" t="n">
-        <v>0.14635</v>
+        <v>1.013</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44949</v>
+        <v>44739</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6369</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44956</v>
+        <v>44746</v>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>0.9865999999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44963</v>
+        <v>44760</v>
       </c>
       <c r="B60" t="n">
-        <v>0.36905</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44970</v>
+        <v>44767</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6369</v>
+        <v>-0.081</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44977</v>
+        <v>44774</v>
       </c>
       <c r="B62" t="n">
-        <v>0.10115</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44984</v>
+        <v>44781</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4609</v>
+        <v>1.2152</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44991</v>
+        <v>44795</v>
       </c>
       <c r="B64" t="n">
+        <v>1.162</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1.6466</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>44823</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1.6476</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>44830</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.796</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>44844</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.3223</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>44851</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.997</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>44858</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.8523000000000001</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>44872</v>
+      </c>
+      <c r="B72" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>44879</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1.2728</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.994</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1.61275</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.285</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>44928</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.796</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1.4205</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.92145</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.3252</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.9955000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/adjusted_df_news.xlsx
+++ b/Excel reports/adjusted_df_news.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B85"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,680 +447,520 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>CombinedVaderSentiment</t>
+          <t>TwitterSentiment</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>43570</v>
+        <v>44550</v>
       </c>
       <c r="B2" t="n">
-        <v>1.5056</v>
+        <v>0.14745</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43976</v>
+        <v>44557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.996</v>
+        <v>0.1186</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44060</v>
+        <v>44564</v>
       </c>
       <c r="B4" t="n">
-        <v>1.2013</v>
+        <v>0.1091</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44067</v>
+        <v>44571</v>
       </c>
       <c r="B5" t="n">
-        <v>0.996</v>
+        <v>0.1062</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44158</v>
+        <v>44578</v>
       </c>
       <c r="B6" t="n">
-        <v>1.1995</v>
+        <v>0.1076</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44165</v>
+        <v>44585</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6774</v>
+        <v>0.05165</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44172</v>
+        <v>44592</v>
       </c>
       <c r="B8" t="n">
-        <v>0.997</v>
+        <v>0.0759</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44179</v>
+        <v>44599</v>
       </c>
       <c r="B9" t="n">
-        <v>1.4364</v>
+        <v>0.1898</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44186</v>
+        <v>44606</v>
       </c>
       <c r="B10" t="n">
-        <v>1.4394</v>
+        <v>0.0574</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44193</v>
+        <v>44613</v>
       </c>
       <c r="B11" t="n">
-        <v>0.796</v>
+        <v>0.1061</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44207</v>
+        <v>44620</v>
       </c>
       <c r="B12" t="n">
-        <v>0.982</v>
+        <v>0.1197</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44214</v>
+        <v>44627</v>
       </c>
       <c r="B13" t="n">
-        <v>0.994</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44221</v>
+        <v>44634</v>
       </c>
       <c r="B14" t="n">
-        <v>0.988</v>
+        <v>0.1089</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44249</v>
+        <v>44641</v>
       </c>
       <c r="B15" t="n">
-        <v>0.168</v>
+        <v>0.1141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44263</v>
+        <v>44648</v>
       </c>
       <c r="B16" t="n">
-        <v>1.6219</v>
+        <v>0.1009</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44277</v>
+        <v>44655</v>
       </c>
       <c r="B17" t="n">
-        <v>0.645</v>
+        <v>0.1123</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44298</v>
+        <v>44662</v>
       </c>
       <c r="B18" t="n">
-        <v>1.1303</v>
+        <v>0.0849</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44305</v>
+        <v>44669</v>
       </c>
       <c r="B19" t="n">
-        <v>0.998</v>
+        <v>0.0815</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44319</v>
+        <v>44676</v>
       </c>
       <c r="B20" t="n">
-        <v>0.996</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44333</v>
+        <v>44683</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8464499999999999</v>
+        <v>0.1028</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44347</v>
+        <v>44690</v>
       </c>
       <c r="B22" t="n">
-        <v>1.0171</v>
+        <v>0.1075</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44361</v>
+        <v>44697</v>
       </c>
       <c r="B23" t="n">
-        <v>0.987</v>
+        <v>0.0572</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44375</v>
+        <v>44704</v>
       </c>
       <c r="B24" t="n">
-        <v>0.546</v>
+        <v>0.1228</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44382</v>
+        <v>44711</v>
       </c>
       <c r="B25" t="n">
-        <v>0.976</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44389</v>
+        <v>44718</v>
       </c>
       <c r="B26" t="n">
-        <v>1.4929</v>
+        <v>0.1387</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44396</v>
+        <v>44725</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5096000000000001</v>
+        <v>0.1126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44403</v>
+        <v>44732</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8149</v>
+        <v>0.1105</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44410</v>
+        <v>44739</v>
       </c>
       <c r="B29" t="n">
-        <v>0.79545</v>
+        <v>0.0934</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44417</v>
+        <v>44746</v>
       </c>
       <c r="B30" t="n">
-        <v>0.997</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44424</v>
+        <v>44753</v>
       </c>
       <c r="B31" t="n">
-        <v>1.0642</v>
+        <v>0.1065</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44431</v>
+        <v>44760</v>
       </c>
       <c r="B32" t="n">
-        <v>1.08715</v>
+        <v>0.0927</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44452</v>
+        <v>44767</v>
       </c>
       <c r="B33" t="n">
-        <v>1.4314</v>
+        <v>0.1265</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44466</v>
+        <v>44781</v>
       </c>
       <c r="B34" t="n">
-        <v>0.796</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44473</v>
+        <v>44788</v>
       </c>
       <c r="B35" t="n">
-        <v>1.6249</v>
+        <v>0.1556</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44487</v>
+        <v>44795</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8379</v>
+        <v>0.1327</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44494</v>
+        <v>44802</v>
       </c>
       <c r="B37" t="n">
-        <v>0.997</v>
+        <v>0.1287</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44501</v>
+        <v>44809</v>
       </c>
       <c r="B38" t="n">
-        <v>0.999</v>
+        <v>0.1581</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44508</v>
+        <v>44816</v>
       </c>
       <c r="B39" t="n">
-        <v>1.24485</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44543</v>
+        <v>44823</v>
       </c>
       <c r="B40" t="n">
-        <v>0.998</v>
+        <v>0.1044</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44564</v>
+        <v>44830</v>
       </c>
       <c r="B41" t="n">
-        <v>0.872</v>
+        <v>0.1153</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44571</v>
+        <v>44837</v>
       </c>
       <c r="B42" t="n">
-        <v>1.291</v>
+        <v>0.1266</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44585</v>
+        <v>44844</v>
       </c>
       <c r="B43" t="n">
-        <v>1.4452</v>
+        <v>0.1054</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44592</v>
+        <v>44851</v>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0.1281</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44599</v>
+        <v>44858</v>
       </c>
       <c r="B45" t="n">
-        <v>0.992</v>
+        <v>0.1276</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44620</v>
+        <v>44865</v>
       </c>
       <c r="B46" t="n">
-        <v>0.992</v>
+        <v>0.1123</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44627</v>
+        <v>44872</v>
       </c>
       <c r="B47" t="n">
-        <v>1.4859</v>
+        <v>0.08459999999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44634</v>
+        <v>44879</v>
       </c>
       <c r="B48" t="n">
-        <v>0.99</v>
+        <v>0.1137</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44641</v>
+        <v>44886</v>
       </c>
       <c r="B49" t="n">
-        <v>0.996</v>
+        <v>0.1155</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44648</v>
+        <v>44893</v>
       </c>
       <c r="B50" t="n">
-        <v>1.115</v>
+        <v>0.1268</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44669</v>
+        <v>44900</v>
       </c>
       <c r="B51" t="n">
-        <v>0.998</v>
+        <v>0.0717</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44676</v>
+        <v>44907</v>
       </c>
       <c r="B52" t="n">
-        <v>0.995</v>
+        <v>0.0805</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44683</v>
+        <v>44914</v>
       </c>
       <c r="B53" t="n">
-        <v>1.28395</v>
+        <v>0.1056</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44704</v>
+        <v>44921</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8369</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44711</v>
+        <v>44928</v>
       </c>
       <c r="B55" t="n">
-        <v>1.461</v>
+        <v>0.09039999999999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44718</v>
+        <v>44935</v>
       </c>
       <c r="B56" t="n">
-        <v>0.375</v>
+        <v>0.07389999999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44732</v>
+        <v>44942</v>
       </c>
       <c r="B57" t="n">
-        <v>1.013</v>
+        <v>0.1241</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44739</v>
+        <v>44949</v>
       </c>
       <c r="B58" t="n">
-        <v>0.796</v>
+        <v>0.1436</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44746</v>
+        <v>44956</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9865999999999999</v>
+        <v>0.1497</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44760</v>
+        <v>44963</v>
       </c>
       <c r="B60" t="n">
-        <v>0.986</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44767</v>
+        <v>44970</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.081</v>
+        <v>0.1052</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44774</v>
+        <v>44977</v>
       </c>
       <c r="B62" t="n">
-        <v>0.995</v>
+        <v>0.1156</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44781</v>
+        <v>44984</v>
       </c>
       <c r="B63" t="n">
-        <v>1.2152</v>
+        <v>0.1958</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44795</v>
+        <v>44991</v>
       </c>
       <c r="B64" t="n">
-        <v>1.162</v>
+        <v>0.1185</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44809</v>
+        <v>44998</v>
       </c>
       <c r="B65" t="n">
-        <v>1.6466</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>44823</v>
-      </c>
-      <c r="B66" t="n">
-        <v>1.6476</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>44830</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.796</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>44844</v>
-      </c>
-      <c r="B68" t="n">
-        <v>1.3223</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>44851</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.997</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>44858</v>
-      </c>
-      <c r="B70" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>44865</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.8523000000000001</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>44872</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>44879</v>
-      </c>
-      <c r="B73" t="n">
-        <v>1.2728</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>44886</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.994</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>44893</v>
-      </c>
-      <c r="B75" t="n">
-        <v>1.61275</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>44900</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.285</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>44907</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.996</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>44921</v>
-      </c>
-      <c r="B78" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>44928</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.796</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>44942</v>
-      </c>
-      <c r="B80" t="n">
-        <v>1.4205</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>44949</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9975000000000001</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0.995</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
-        <v>44963</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0.92145</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
-        <v>44970</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0.3252</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
-        <v>44984</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.9955000000000001</v>
+        <v>0.1004</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/adjusted_df_news.xlsx
+++ b/Excel reports/adjusted_df_news.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,514 +453,362 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44550</v>
+        <v>44557</v>
       </c>
       <c r="B2" t="n">
-        <v>0.14745</v>
+        <v>0.20095</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44557</v>
+        <v>44564</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44564</v>
+        <v>44571</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44571</v>
+        <v>44578</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44578</v>
+        <v>44585</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44585</v>
+        <v>44592</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05165</v>
+        <v>-0.148</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44592</v>
+        <v>44599</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0759</v>
+        <v>0.11315</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44599</v>
+        <v>44606</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1898</v>
+        <v>0.201</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44606</v>
+        <v>44613</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0574</v>
+        <v>0.41155</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44613</v>
+        <v>44620</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1061</v>
+        <v>0.27495</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44620</v>
+        <v>44627</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1197</v>
+        <v>0.1496</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44627</v>
+        <v>44634</v>
       </c>
       <c r="B13" t="n">
-        <v>0.115</v>
+        <v>0.30145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44634</v>
+        <v>44641</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1089</v>
+        <v>0.15105</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44641</v>
+        <v>44648</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1141</v>
+        <v>0.2553</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44648</v>
+        <v>44669</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44655</v>
+        <v>44676</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44662</v>
+        <v>44683</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44669</v>
+        <v>44690</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44676</v>
+        <v>44697</v>
       </c>
       <c r="B20" t="n">
-        <v>0.077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44683</v>
+        <v>44711</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1028</v>
+        <v>0.08455</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44690</v>
+        <v>44718</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1075</v>
+        <v>-0.2732</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44697</v>
+        <v>44725</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0572</v>
+        <v>-0.2732</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44704</v>
+        <v>44732</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44711</v>
+        <v>44739</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1012</v>
+        <v>0.7717000000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44718</v>
+        <v>44746</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44725</v>
+        <v>44753</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1126</v>
+        <v>0.1366</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44732</v>
+        <v>44760</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1105</v>
+        <v>0.2553</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44739</v>
+        <v>44767</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0934</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44746</v>
+        <v>44802</v>
       </c>
       <c r="B30" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44753</v>
+        <v>44809</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44760</v>
+        <v>44816</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0927</v>
+        <v>0.3021</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44767</v>
+        <v>44823</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44781</v>
+        <v>44830</v>
       </c>
       <c r="B34" t="n">
-        <v>0.137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44788</v>
+        <v>44837</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1556</v>
+        <v>-0.008</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44795</v>
+        <v>44844</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44802</v>
+        <v>44851</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1287</v>
+        <v>0.2202</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44809</v>
+        <v>44858</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44816</v>
+        <v>44865</v>
       </c>
       <c r="B39" t="n">
-        <v>0.142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44823</v>
+        <v>44872</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44830</v>
+        <v>44879</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44837</v>
+        <v>44886</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1266</v>
+        <v>0.4019</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44844</v>
+        <v>44921</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44851</v>
+        <v>44928</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44858</v>
+        <v>44935</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1276</v>
+        <v>-0.08799999999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44865</v>
+        <v>44970</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1123</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>44872</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.08459999999999999</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>44879</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.1137</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>44886</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.1155</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>44893</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.1268</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>44900</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.0717</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>44907</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.0805</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>44914</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.1056</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>44921</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.082</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>44928</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.09039999999999999</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>44935</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.07389999999999999</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>44942</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.1241</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>44949</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.1436</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.1497</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>44963</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.135</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>44970</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.1052</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>44977</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.1156</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>44984</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.1958</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>44991</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.1185</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>44998</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.1004</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/adjusted_df_news.xlsx
+++ b/Excel reports/adjusted_df_news.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,362 +453,514 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44557</v>
+        <v>44550</v>
       </c>
       <c r="B2" t="n">
-        <v>0.20095</v>
+        <v>0.14745</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44564</v>
+        <v>44557</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.1186</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44571</v>
+        <v>44564</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.1091</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44578</v>
+        <v>44571</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.1062</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44585</v>
+        <v>44578</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.1076</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44592</v>
+        <v>44585</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.148</v>
+        <v>0.05165</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44599</v>
+        <v>44592</v>
       </c>
       <c r="B8" t="n">
-        <v>0.11315</v>
+        <v>0.0759</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44606</v>
+        <v>44599</v>
       </c>
       <c r="B9" t="n">
-        <v>0.201</v>
+        <v>0.1898</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44613</v>
+        <v>44606</v>
       </c>
       <c r="B10" t="n">
-        <v>0.41155</v>
+        <v>0.0574</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44620</v>
+        <v>44613</v>
       </c>
       <c r="B11" t="n">
-        <v>0.27495</v>
+        <v>0.1061</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44627</v>
+        <v>44620</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1496</v>
+        <v>0.1197</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44634</v>
+        <v>44627</v>
       </c>
       <c r="B13" t="n">
-        <v>0.30145</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44641</v>
+        <v>44634</v>
       </c>
       <c r="B14" t="n">
-        <v>0.15105</v>
+        <v>0.1089</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44648</v>
+        <v>44641</v>
       </c>
       <c r="B15" t="n">
-        <v>0.2553</v>
+        <v>0.1141</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44669</v>
+        <v>44648</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.1009</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44676</v>
+        <v>44655</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.1123</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44683</v>
+        <v>44662</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.0849</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44690</v>
+        <v>44669</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.0815</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44697</v>
+        <v>44676</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44711</v>
+        <v>44683</v>
       </c>
       <c r="B21" t="n">
-        <v>0.08455</v>
+        <v>0.1028</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44718</v>
+        <v>44690</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.2732</v>
+        <v>0.1075</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44725</v>
+        <v>44697</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.2732</v>
+        <v>0.0572</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44732</v>
+        <v>44704</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.1228</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>44739</v>
+        <v>44711</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7717000000000001</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>44746</v>
+        <v>44718</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.1387</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>44753</v>
+        <v>44725</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1366</v>
+        <v>0.1126</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>44760</v>
+        <v>44732</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2553</v>
+        <v>0.1105</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>44767</v>
+        <v>44739</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.0934</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>44802</v>
+        <v>44746</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>44809</v>
+        <v>44753</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.1065</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>44816</v>
+        <v>44760</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3021</v>
+        <v>0.0927</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>44823</v>
+        <v>44767</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.1265</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>44830</v>
+        <v>44781</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>44837</v>
+        <v>44788</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.008</v>
+        <v>0.1556</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44844</v>
+        <v>44795</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.1327</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44851</v>
+        <v>44802</v>
       </c>
       <c r="B37" t="n">
-        <v>0.2202</v>
+        <v>0.1287</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44858</v>
+        <v>44809</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>0.1581</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44865</v>
+        <v>44816</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>0.142</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44872</v>
+        <v>44823</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.1044</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44879</v>
+        <v>44830</v>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>0.1153</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44886</v>
+        <v>44837</v>
       </c>
       <c r="B42" t="n">
-        <v>0.4019</v>
+        <v>0.1266</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44921</v>
+        <v>44844</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>0.1054</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44928</v>
+        <v>44851</v>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>0.1281</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44935</v>
+        <v>44858</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.08799999999999999</v>
+        <v>0.1276</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.1123</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>44872</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.08459999999999999</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>44879</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.1137</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.1155</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.1268</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.0717</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.0805</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.1056</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.082</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>44928</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.09039999999999999</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.07389999999999999</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.1241</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.1436</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.1497</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.135</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>44970</v>
       </c>
-      <c r="B46" t="n">
-        <v>0</v>
+      <c r="B61" t="n">
+        <v>0.1052</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.1156</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.1958</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.1185</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.1004</v>
       </c>
     </row>
   </sheetData>

--- a/Excel reports/adjusted_df_news.xlsx
+++ b/Excel reports/adjusted_df_news.xlsx
@@ -456,7 +456,7 @@
         <v>44550</v>
       </c>
       <c r="B2" t="n">
-        <v>0.14745</v>
+        <v>0.1401833333333333</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>44557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1186</v>
+        <v>0.1131428571428571</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>44564</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1091</v>
+        <v>0.1038</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>44571</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1062</v>
+        <v>0.1048571428571429</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>44578</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1076</v>
+        <v>0.10685</v>
       </c>
     </row>
     <row r="7">
@@ -504,7 +504,7 @@
         <v>44592</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0759</v>
+        <v>0.10896</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         <v>44599</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1898</v>
+        <v>0.1775142857142857</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>44606</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0574</v>
+        <v>0.09011428571428572</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         <v>44613</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1061</v>
+        <v>0.09985714285714287</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         <v>44620</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1197</v>
+        <v>0.1294</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>44627</v>
       </c>
       <c r="B13" t="n">
-        <v>0.115</v>
+        <v>0.1157571428571429</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>44634</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1089</v>
+        <v>0.1268285714285714</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>44641</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1141</v>
+        <v>0.1223285714285714</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>44648</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1009</v>
+        <v>0.1117714285714286</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>44655</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1123</v>
+        <v>0.1138</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>44662</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0849</v>
+        <v>0.08015714285714286</v>
       </c>
     </row>
     <row r="19">
@@ -592,7 +592,7 @@
         <v>44669</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0815</v>
+        <v>0.07004285714285714</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>44676</v>
       </c>
       <c r="B20" t="n">
-        <v>0.077</v>
+        <v>0.07728571428571429</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>44683</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1028</v>
+        <v>0.1040428571428571</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         <v>44690</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1075</v>
+        <v>0.1162142857142857</v>
       </c>
     </row>
     <row r="23">
@@ -624,7 +624,7 @@
         <v>44697</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0572</v>
+        <v>0.04744285714285714</v>
       </c>
     </row>
     <row r="24">
@@ -632,7 +632,7 @@
         <v>44704</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1228</v>
+        <v>0.1086</v>
       </c>
     </row>
     <row r="25">
@@ -640,7 +640,7 @@
         <v>44711</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1012</v>
+        <v>0.1049142857142857</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>44718</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1387</v>
+        <v>0.1533142857142857</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +656,7 @@
         <v>44725</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1126</v>
+        <v>0.1076428571428572</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>44732</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1105</v>
+        <v>0.1169</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>44739</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0934</v>
+        <v>0.09108571428571428</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>44746</v>
       </c>
       <c r="B30" t="n">
-        <v>0.11</v>
+        <v>0.1097714285714286</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>44753</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1065</v>
+        <v>0.1120714285714286</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>44760</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0927</v>
+        <v>0.1076428571428572</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +704,7 @@
         <v>44767</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1265</v>
+        <v>0.14154</v>
       </c>
     </row>
     <row r="34">
@@ -712,7 +712,7 @@
         <v>44781</v>
       </c>
       <c r="B34" t="n">
-        <v>0.137</v>
+        <v>0.09763333333333335</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>44788</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1556</v>
+        <v>0.1515142857142857</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>44795</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1327</v>
+        <v>0.1383285714285714</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>44802</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1287</v>
+        <v>0.1511142857142857</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>44809</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1581</v>
+        <v>0.1624857142857143</v>
       </c>
     </row>
     <row r="39">
@@ -752,7 +752,7 @@
         <v>44816</v>
       </c>
       <c r="B39" t="n">
-        <v>0.142</v>
+        <v>0.1342</v>
       </c>
     </row>
     <row r="40">
@@ -760,7 +760,7 @@
         <v>44823</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1044</v>
+        <v>0.1131142857142857</v>
       </c>
     </row>
     <row r="41">
@@ -768,7 +768,7 @@
         <v>44830</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1153</v>
+        <v>0.1190428571428571</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         <v>44837</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1266</v>
+        <v>0.1282285714285714</v>
       </c>
     </row>
     <row r="43">
@@ -784,7 +784,7 @@
         <v>44844</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1054</v>
+        <v>0.1107</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>44851</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1281</v>
+        <v>0.1406428571428571</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +800,7 @@
         <v>44858</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1276</v>
+        <v>0.1291571428571429</v>
       </c>
     </row>
     <row r="46">
@@ -808,7 +808,7 @@
         <v>44865</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1123</v>
+        <v>0.1308428571428571</v>
       </c>
     </row>
     <row r="47">
@@ -816,7 +816,7 @@
         <v>44872</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08459999999999999</v>
+        <v>0.08381428571428572</v>
       </c>
     </row>
     <row r="48">
@@ -824,7 +824,7 @@
         <v>44879</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1137</v>
+        <v>0.1097</v>
       </c>
     </row>
     <row r="49">
@@ -832,7 +832,7 @@
         <v>44886</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1155</v>
+        <v>0.1190857142857143</v>
       </c>
     </row>
     <row r="50">
@@ -840,7 +840,7 @@
         <v>44893</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1268</v>
+        <v>0.1229714285714286</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +848,7 @@
         <v>44900</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0717</v>
+        <v>0.07528571428571429</v>
       </c>
     </row>
     <row r="52">
@@ -856,7 +856,7 @@
         <v>44907</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0805</v>
+        <v>0.09244285714285715</v>
       </c>
     </row>
     <row r="53">
@@ -864,7 +864,7 @@
         <v>44914</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1056</v>
+        <v>0.1012</v>
       </c>
     </row>
     <row r="54">
@@ -872,7 +872,7 @@
         <v>44921</v>
       </c>
       <c r="B54" t="n">
-        <v>0.082</v>
+        <v>0.08324285714285715</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +880,7 @@
         <v>44928</v>
       </c>
       <c r="B55" t="n">
-        <v>0.09039999999999999</v>
+        <v>0.07425714285714287</v>
       </c>
     </row>
     <row r="56">
@@ -888,7 +888,7 @@
         <v>44935</v>
       </c>
       <c r="B56" t="n">
-        <v>0.07389999999999999</v>
+        <v>0.06008571428571428</v>
       </c>
     </row>
     <row r="57">
@@ -896,7 +896,7 @@
         <v>44942</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1241</v>
+        <v>0.1234571428571428</v>
       </c>
     </row>
     <row r="58">
@@ -904,7 +904,7 @@
         <v>44949</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1436</v>
+        <v>0.1348</v>
       </c>
     </row>
     <row r="59">
@@ -912,7 +912,7 @@
         <v>44956</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1497</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>44963</v>
       </c>
       <c r="B60" t="n">
-        <v>0.135</v>
+        <v>0.1262714285714286</v>
       </c>
     </row>
     <row r="61">
@@ -928,7 +928,7 @@
         <v>44970</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1052</v>
+        <v>0.1032714285714286</v>
       </c>
     </row>
     <row r="62">
@@ -936,7 +936,7 @@
         <v>44977</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1156</v>
+        <v>0.09942857142857142</v>
       </c>
     </row>
     <row r="63">
@@ -944,7 +944,7 @@
         <v>44984</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1958</v>
+        <v>0.1969571428571429</v>
       </c>
     </row>
     <row r="64">
@@ -952,7 +952,7 @@
         <v>44991</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1185</v>
+        <v>0.1341</v>
       </c>
     </row>
     <row r="65">

--- a/Excel reports/adjusted_df_news.xlsx
+++ b/Excel reports/adjusted_df_news.xlsx
@@ -456,7 +456,7 @@
         <v>44550</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1976</v>
+        <v>0.2011</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>44557</v>
       </c>
       <c r="B3" t="n">
-        <v>0.219</v>
+        <v>0.2067</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>44564</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1387</v>
+        <v>0.1483</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>44571</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1435</v>
+        <v>0.1123</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>44578</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1057</v>
+        <v>0.1167</v>
       </c>
     </row>
     <row r="7">
@@ -512,7 +512,7 @@
         <v>44599</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.0786</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>44606</v>
       </c>
       <c r="B10" t="n">
-        <v>0.093</v>
+        <v>0.0582</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         <v>44613</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1074</v>
+        <v>0.1217</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         <v>44620</v>
       </c>
       <c r="B12" t="n">
-        <v>0.14945</v>
+        <v>0.1101</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>44627</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1793</v>
+        <v>0.2358</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>44634</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.2696</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>44641</v>
       </c>
       <c r="B15" t="n">
-        <v>0.08989999999999999</v>
+        <v>0.2114</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>44648</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1144</v>
+        <v>0.1572</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>44655</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.1078</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>44662</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.0767</v>
       </c>
     </row>
     <row r="19">
@@ -592,7 +592,7 @@
         <v>44669</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.1024</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>44676</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0494</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>44683</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0253</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         <v>44690</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -624,7 +624,7 @@
         <v>44697</v>
       </c>
       <c r="B23" t="n">
-        <v>0.2205</v>
+        <v>0.0707</v>
       </c>
     </row>
     <row r="24">
@@ -632,7 +632,7 @@
         <v>44704</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0921</v>
+        <v>0.1372</v>
       </c>
     </row>
     <row r="25">
@@ -640,7 +640,7 @@
         <v>44711</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0557</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>44718</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1564</v>
+        <v>0.0948</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +656,7 @@
         <v>44725</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1229</v>
+        <v>0.1201</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>44732</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1675</v>
+        <v>0.0589</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>44739</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1334</v>
+        <v>0.0775</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>44746</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1781</v>
+        <v>0.1642</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>44753</v>
       </c>
       <c r="B31" t="n">
-        <v>0.2222</v>
+        <v>0.0926</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>44760</v>
       </c>
       <c r="B32" t="n">
-        <v>0.12</v>
+        <v>0.1805</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +704,7 @@
         <v>44767</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1415</v>
+        <v>0.1912</v>
       </c>
     </row>
     <row r="34">
@@ -712,7 +712,7 @@
         <v>44781</v>
       </c>
       <c r="B34" t="n">
-        <v>0.09515</v>
+        <v>0.1785</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>44788</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1653</v>
+        <v>0.1674</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>44795</v>
       </c>
       <c r="B36" t="n">
-        <v>0.162</v>
+        <v>0.1889</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>44802</v>
       </c>
       <c r="B37" t="n">
-        <v>0.1573</v>
+        <v>0.1983</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>44809</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1146</v>
+        <v>0.1778</v>
       </c>
     </row>
     <row r="39">
@@ -752,7 +752,7 @@
         <v>44816</v>
       </c>
       <c r="B39" t="n">
-        <v>0.1442</v>
+        <v>0.1791</v>
       </c>
     </row>
     <row r="40">
@@ -760,7 +760,7 @@
         <v>44823</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1248</v>
+        <v>0.1323</v>
       </c>
     </row>
     <row r="41">
@@ -768,7 +768,7 @@
         <v>44830</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1062</v>
+        <v>0.1059</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         <v>44837</v>
       </c>
       <c r="B42" t="n">
-        <v>0.098</v>
+        <v>0.0992</v>
       </c>
     </row>
     <row r="43">
@@ -784,7 +784,7 @@
         <v>44844</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1757</v>
+        <v>0.1217</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>44851</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1729</v>
+        <v>0.1602</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +800,7 @@
         <v>44858</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1645</v>
+        <v>0.1396</v>
       </c>
     </row>
     <row r="46">
@@ -808,7 +808,7 @@
         <v>44865</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1731</v>
+        <v>0.1402</v>
       </c>
     </row>
     <row r="47">
@@ -816,7 +816,7 @@
         <v>44872</v>
       </c>
       <c r="B47" t="n">
-        <v>0.139</v>
+        <v>0.1544</v>
       </c>
     </row>
     <row r="48">
@@ -824,7 +824,7 @@
         <v>44879</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1569</v>
+        <v>0.1612</v>
       </c>
     </row>
     <row r="49">
@@ -832,7 +832,7 @@
         <v>44886</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1428</v>
+        <v>0.1676</v>
       </c>
     </row>
     <row r="50">
@@ -840,7 +840,7 @@
         <v>44893</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1021</v>
+        <v>0.1376</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +848,7 @@
         <v>44900</v>
       </c>
       <c r="B51" t="n">
-        <v>0.143</v>
+        <v>0.1182</v>
       </c>
     </row>
     <row r="52">
@@ -856,7 +856,7 @@
         <v>44907</v>
       </c>
       <c r="B52" t="n">
-        <v>0.09320000000000001</v>
+        <v>0.1273</v>
       </c>
     </row>
     <row r="53">
@@ -864,7 +864,7 @@
         <v>44914</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1051</v>
+        <v>0.1384</v>
       </c>
     </row>
     <row r="54">
@@ -872,7 +872,7 @@
         <v>44921</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1243</v>
+        <v>0.1557</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +880,7 @@
         <v>44928</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1013</v>
+        <v>0.1346</v>
       </c>
     </row>
     <row r="56">
@@ -888,7 +888,7 @@
         <v>44935</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1597</v>
+        <v>0.1304</v>
       </c>
     </row>
     <row r="57">
@@ -896,7 +896,7 @@
         <v>44942</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1402</v>
+        <v>-0.09420000000000001</v>
       </c>
     </row>
     <row r="58">
@@ -904,7 +904,7 @@
         <v>44949</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1138</v>
+        <v>0.0835</v>
       </c>
     </row>
     <row r="59">
@@ -912,7 +912,7 @@
         <v>44956</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1219</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>44963</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1516</v>
+        <v>0.1257</v>
       </c>
     </row>
     <row r="61">
@@ -928,7 +928,7 @@
         <v>44970</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1313</v>
+        <v>0.1317</v>
       </c>
     </row>
     <row r="62">
@@ -936,7 +936,7 @@
         <v>44977</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1184</v>
+        <v>0.1771</v>
       </c>
     </row>
     <row r="63">
@@ -944,7 +944,7 @@
         <v>44984</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1096</v>
+        <v>0.1383</v>
       </c>
     </row>
     <row r="64">
@@ -952,7 +952,7 @@
         <v>44991</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1398</v>
+        <v>0.0876</v>
       </c>
     </row>
     <row r="65">
@@ -960,7 +960,7 @@
         <v>44998</v>
       </c>
       <c r="B65" t="n">
-        <v>0.14365</v>
+        <v>0.02895</v>
       </c>
     </row>
   </sheetData>
